--- a/Bulk Loads/6521/6521 Preliminary Utility Load Schedule_2022_formatted.xlsx
+++ b/Bulk Loads/6521/6521 Preliminary Utility Load Schedule_2022_formatted.xlsx
@@ -44,7 +44,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -54,6 +54,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00002060"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -69,12 +75,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -506,7 +513,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 01, 2024</t>
+          <t>August 05, 2024</t>
         </is>
       </c>
     </row>
@@ -654,13 +661,13 @@
           <t>INSECT CONTROL</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="6" t="n">
         <v>0.4</v>
       </c>
       <c r="T9" t="inlineStr">
@@ -681,7 +688,7 @@
           <t>SMT RECESSED REMOTE STATION</t>
         </is>
       </c>
-      <c r="F10" s="5" t="n"/>
+      <c r="F10" s="6" t="n"/>
       <c r="G10" t="n">
         <v>10</v>
       </c>
@@ -703,7 +710,7 @@
           <t>LIQUOR STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F11" s="5" t="n"/>
+      <c r="F11" s="6" t="n"/>
       <c r="T11" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
@@ -722,13 +729,13 @@
           <t>LIQUOR COLD ROOM</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
@@ -751,7 +758,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F13" s="5" t="n"/>
+      <c r="F13" s="6" t="n"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -767,7 +774,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F14" s="5" t="n"/>
+      <c r="F14" s="6" t="n"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -781,7 +788,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F15" s="5" t="n"/>
+      <c r="F15" s="6" t="n"/>
       <c r="K15" t="n">
         <v>50</v>
       </c>
@@ -803,13 +810,13 @@
           <t>REFRIGERATION SYSTEM</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="6" t="n">
         <v>15</v>
       </c>
       <c r="Q16" t="n">
@@ -841,7 +848,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F17" s="5" t="n"/>
+      <c r="F17" s="6" t="n"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -857,7 +864,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F18" s="5" t="n"/>
+      <c r="F18" s="6" t="n"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -871,7 +878,7 @@
           <t>LIQUOR STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F19" s="5" t="n"/>
+      <c r="F19" s="6" t="n"/>
       <c r="T19" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
@@ -890,7 +897,7 @@
           <t>WINE STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F20" s="5" t="n"/>
+      <c r="F20" s="6" t="n"/>
       <c r="T20" t="inlineStr">
         <is>
           <t>FIXED FOURTEEN TIER 186 BOTTLES</t>
@@ -909,13 +916,13 @@
           <t>REACH-IN ULTRA LOW TEMP FREEZER</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
-      <c r="F21" s="5" t="n">
+      <c r="F21" s="6" t="n">
         <v>6.5</v>
       </c>
       <c r="T21" t="inlineStr">
@@ -936,13 +943,13 @@
           <t>HOLDING FREEZER</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
@@ -965,7 +972,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F23" s="5" t="n"/>
+      <c r="F23" s="6" t="n"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -981,7 +988,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F24" s="5" t="n"/>
+      <c r="F24" s="6" t="n"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -995,7 +1002,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F25" s="5" t="n"/>
+      <c r="F25" s="6" t="n"/>
       <c r="K25" t="n">
         <v>50</v>
       </c>
@@ -1017,13 +1024,13 @@
           <t>REFRIGERATION SYSTEM</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
       </c>
-      <c r="F26" s="5" t="n">
+      <c r="F26" s="6" t="n">
         <v>20</v>
       </c>
       <c r="Q26" t="n">
@@ -1055,7 +1062,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F27" s="5" t="n"/>
+      <c r="F27" s="6" t="n"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1071,7 +1078,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F28" s="5" t="n"/>
+      <c r="F28" s="6" t="n"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1085,7 +1092,7 @@
           <t>DAY FREEZER STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F29" s="5" t="n"/>
+      <c r="F29" s="6" t="n"/>
       <c r="T29" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
@@ -1104,13 +1111,13 @@
           <t>REACH-IN ULTRA LOW TEMP FREEZER</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
       </c>
-      <c r="F30" s="5" t="n">
+      <c r="F30" s="6" t="n">
         <v>6.5</v>
       </c>
       <c r="T30" t="inlineStr">
@@ -1131,7 +1138,7 @@
           <t>DRY STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F31" s="5" t="n"/>
+      <c r="F31" s="6" t="n"/>
       <c r="T31" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
@@ -1150,7 +1157,7 @@
           <t>DUNNAGE RACK</t>
         </is>
       </c>
-      <c r="F32" s="5" t="n"/>
+      <c r="F32" s="6" t="n"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1166,7 +1173,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F33" s="5" t="n"/>
+      <c r="F33" s="6" t="n"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1180,7 +1187,7 @@
           <t>HIGH-DENSITY SHELVING</t>
         </is>
       </c>
-      <c r="F34" s="5" t="n"/>
+      <c r="F34" s="6" t="n"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1194,7 +1201,7 @@
           <t>DUNNAGE RACK</t>
         </is>
       </c>
-      <c r="F35" s="5" t="n"/>
+      <c r="F35" s="6" t="n"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1208,7 +1215,7 @@
           <t>HIGH-DENSITY SHELVING</t>
         </is>
       </c>
-      <c r="F36" s="5" t="n"/>
+      <c r="F36" s="6" t="n"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1224,7 +1231,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F37" s="5" t="n"/>
+      <c r="F37" s="6" t="n"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1240,7 +1247,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F38" s="5" t="n"/>
+      <c r="F38" s="6" t="n"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1254,13 +1261,13 @@
           <t>KEG COOLER</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
       </c>
-      <c r="F39" s="5" t="n">
+      <c r="F39" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T39" t="inlineStr">
@@ -1281,7 +1288,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F40" s="5" t="n"/>
+      <c r="F40" s="6" t="n"/>
       <c r="K40" t="n">
         <v>50</v>
       </c>
@@ -1303,13 +1310,13 @@
           <t>REFRIGERATION SYSTEM</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
       </c>
-      <c r="F41" s="5" t="n">
+      <c r="F41" s="6" t="n">
         <v>15</v>
       </c>
       <c r="Q41" t="n">
@@ -1339,7 +1346,7 @@
           <t>KEG RACK</t>
         </is>
       </c>
-      <c r="F42" s="5" t="n"/>
+      <c r="F42" s="6" t="n"/>
       <c r="T42" t="inlineStr">
         <is>
           <t>DOUBLE DECK</t>
@@ -1360,7 +1367,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F43" s="5" t="n"/>
+      <c r="F43" s="6" t="n"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1374,13 +1381,13 @@
           <t>BEER SYSTEM</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
       </c>
-      <c r="F44" s="5" t="n">
+      <c r="F44" s="6" t="n">
         <v>8.6</v>
       </c>
       <c r="R44" t="n">
@@ -1407,13 +1414,13 @@
           <t>KEG LIFTER</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
       </c>
-      <c r="F45" s="5" t="n">
+      <c r="F45" s="6" t="n">
         <v>8</v>
       </c>
       <c r="T45" t="inlineStr">
@@ -1434,7 +1441,7 @@
           <t>UTILITY RACK</t>
         </is>
       </c>
-      <c r="F46" s="5" t="n"/>
+      <c r="F46" s="6" t="n"/>
       <c r="T46" t="inlineStr">
         <is>
           <t>MOBILE</t>
@@ -1455,7 +1462,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F47" s="5" t="n"/>
+      <c r="F47" s="6" t="n"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1471,7 +1478,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F48" s="5" t="n"/>
+      <c r="F48" s="6" t="n"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1485,7 +1492,7 @@
           <t>DUMBWAITER</t>
         </is>
       </c>
-      <c r="F49" s="5" t="n"/>
+      <c r="F49" s="6" t="n"/>
       <c r="T49" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
@@ -1504,7 +1511,7 @@
           <t>SHELVING UNIT</t>
         </is>
       </c>
-      <c r="F50" s="5" t="n"/>
+      <c r="F50" s="6" t="n"/>
       <c r="T50" t="inlineStr">
         <is>
           <t>FIXED TWO TIER</t>
@@ -1523,7 +1530,7 @@
           <t>MOP SINK</t>
         </is>
       </c>
-      <c r="F51" s="5" t="n"/>
+      <c r="F51" s="6" t="n"/>
       <c r="K51" t="n">
         <v>50</v>
       </c>
@@ -1545,7 +1552,7 @@
           <t>HOSE BIBB</t>
         </is>
       </c>
-      <c r="F52" s="5" t="n"/>
+      <c r="F52" s="6" t="n"/>
       <c r="G52" t="n">
         <v>15</v>
       </c>
@@ -1572,7 +1579,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F53" s="5" t="n"/>
+      <c r="F53" s="6" t="n"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1586,7 +1593,7 @@
           <t>WALL SHELF</t>
         </is>
       </c>
-      <c r="F54" s="5" t="n"/>
+      <c r="F54" s="6" t="n"/>
       <c r="T54" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -1605,7 +1612,7 @@
           <t>MOP RACK</t>
         </is>
       </c>
-      <c r="F55" s="5" t="n"/>
+      <c r="F55" s="6" t="n"/>
       <c r="T55" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
@@ -1626,7 +1633,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F56" s="5" t="n"/>
+      <c r="F56" s="6" t="n"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1642,7 +1649,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F57" s="5" t="n"/>
+      <c r="F57" s="6" t="n"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1658,7 +1665,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F58" s="5" t="n"/>
+      <c r="F58" s="6" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
@@ -1698,13 +1705,13 @@
           <t>WORK SURFACE</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E60" t="n">
         <v>1</v>
       </c>
-      <c r="F60" s="5" t="n">
+      <c r="F60" s="6" t="n">
         <v>30</v>
       </c>
       <c r="T60" t="inlineStr">
@@ -1725,7 +1732,7 @@
           <t>CHAIR</t>
         </is>
       </c>
-      <c r="F61" s="5" t="n"/>
+      <c r="F61" s="6" t="n"/>
       <c r="T61" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
@@ -1744,13 +1751,13 @@
           <t>COMPUTER</t>
         </is>
       </c>
-      <c r="D62" t="n">
+      <c r="D62" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E62" t="n">
         <v>1</v>
       </c>
-      <c r="F62" s="5" t="n">
+      <c r="F62" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T62" t="inlineStr">
@@ -1771,7 +1778,7 @@
           <t>WALL CABINET</t>
         </is>
       </c>
-      <c r="F63" s="5" t="n"/>
+      <c r="F63" s="6" t="n"/>
       <c r="T63" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
@@ -1792,7 +1799,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F64" s="5" t="n"/>
+      <c r="F64" s="6" t="n"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1808,7 +1815,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F65" s="5" t="n"/>
+      <c r="F65" s="6" t="n"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1822,13 +1829,13 @@
           <t>WORK SURFACE</t>
         </is>
       </c>
-      <c r="D66" t="n">
+      <c r="D66" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E66" t="n">
         <v>1</v>
       </c>
-      <c r="F66" s="5" t="n">
+      <c r="F66" s="6" t="n">
         <v>20</v>
       </c>
       <c r="T66" t="inlineStr">
@@ -1849,7 +1856,7 @@
           <t>CHAIR</t>
         </is>
       </c>
-      <c r="F67" s="5" t="n"/>
+      <c r="F67" s="6" t="n"/>
       <c r="T67" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
@@ -1870,7 +1877,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F68" s="5" t="n"/>
+      <c r="F68" s="6" t="n"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1886,7 +1893,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F69" s="5" t="n"/>
+      <c r="F69" s="6" t="n"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1900,13 +1907,13 @@
           <t>COMPUTER</t>
         </is>
       </c>
-      <c r="D70" t="n">
+      <c r="D70" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E70" t="n">
         <v>1</v>
       </c>
-      <c r="F70" s="5" t="n">
+      <c r="F70" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T70" t="inlineStr">
@@ -1927,7 +1934,7 @@
           <t>WALL CABINET</t>
         </is>
       </c>
-      <c r="F71" s="5" t="n"/>
+      <c r="F71" s="6" t="n"/>
       <c r="T71" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
@@ -1946,13 +1953,13 @@
           <t>WORK SURFACE</t>
         </is>
       </c>
-      <c r="D72" t="n">
+      <c r="D72" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E72" t="n">
         <v>1</v>
       </c>
-      <c r="F72" s="5" t="n">
+      <c r="F72" s="6" t="n">
         <v>30</v>
       </c>
       <c r="T72" t="inlineStr">
@@ -1973,7 +1980,7 @@
           <t>CHAIR</t>
         </is>
       </c>
-      <c r="F73" s="5" t="n"/>
+      <c r="F73" s="6" t="n"/>
       <c r="T73" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
@@ -1994,7 +2001,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F74" s="5" t="n"/>
+      <c r="F74" s="6" t="n"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2008,13 +2015,13 @@
           <t>COMPUTER</t>
         </is>
       </c>
-      <c r="D75" t="n">
+      <c r="D75" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E75" t="n">
         <v>1</v>
       </c>
-      <c r="F75" s="5" t="n">
+      <c r="F75" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T75" t="inlineStr">
@@ -2035,7 +2042,7 @@
           <t>WALL CABINET</t>
         </is>
       </c>
-      <c r="F76" s="5" t="n"/>
+      <c r="F76" s="6" t="n"/>
       <c r="T76" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
@@ -2054,7 +2061,7 @@
           <t>CHAIR</t>
         </is>
       </c>
-      <c r="F77" s="5" t="n"/>
+      <c r="F77" s="6" t="n"/>
       <c r="T77" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
@@ -2075,7 +2082,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F78" s="5" t="n"/>
+      <c r="F78" s="6" t="n"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2091,7 +2098,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F79" s="5" t="n"/>
+      <c r="F79" s="6" t="n"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2107,7 +2114,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F80" s="5" t="n"/>
+      <c r="F80" s="6" t="n"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2121,13 +2128,13 @@
           <t>COMPUTER</t>
         </is>
       </c>
-      <c r="D81" t="n">
+      <c r="D81" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E81" t="n">
         <v>1</v>
       </c>
-      <c r="F81" s="5" t="n">
+      <c r="F81" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T81" t="inlineStr">
@@ -2148,13 +2155,13 @@
           <t>WORK SURFACE</t>
         </is>
       </c>
-      <c r="D82" t="n">
+      <c r="D82" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E82" t="n">
         <v>1</v>
       </c>
-      <c r="F82" s="5" t="n">
+      <c r="F82" s="6" t="n">
         <v>30</v>
       </c>
       <c r="T82" t="inlineStr">
@@ -2175,7 +2182,7 @@
           <t>WALL CABINET</t>
         </is>
       </c>
-      <c r="F83" s="5" t="n"/>
+      <c r="F83" s="6" t="n"/>
       <c r="T83" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
@@ -2196,7 +2203,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F84" s="5" t="n"/>
+      <c r="F84" s="6" t="n"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2210,7 +2217,7 @@
           <t>CHAIR</t>
         </is>
       </c>
-      <c r="F85" s="5" t="n"/>
+      <c r="F85" s="6" t="n"/>
       <c r="T85" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
@@ -2229,13 +2236,13 @@
           <t>COMPUTER</t>
         </is>
       </c>
-      <c r="D86" t="n">
+      <c r="D86" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E86" t="n">
         <v>1</v>
       </c>
-      <c r="F86" s="5" t="n">
+      <c r="F86" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T86" t="inlineStr">
@@ -2256,7 +2263,7 @@
           <t>CHAIR</t>
         </is>
       </c>
-      <c r="F87" s="5" t="n"/>
+      <c r="F87" s="6" t="n"/>
       <c r="T87" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
@@ -2277,7 +2284,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F88" s="5" t="n"/>
+      <c r="F88" s="6" t="n"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2293,7 +2300,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F89" s="5" t="n"/>
+      <c r="F89" s="6" t="n"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2307,13 +2314,13 @@
           <t>COMPUTER</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E90" t="n">
         <v>1</v>
       </c>
-      <c r="F90" s="5" t="n">
+      <c r="F90" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T90" t="inlineStr">
@@ -2334,7 +2341,7 @@
           <t>CHAIR</t>
         </is>
       </c>
-      <c r="F91" s="5" t="n"/>
+      <c r="F91" s="6" t="n"/>
       <c r="T91" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
@@ -2353,13 +2360,13 @@
           <t>COMPUTER</t>
         </is>
       </c>
-      <c r="D92" t="n">
+      <c r="D92" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E92" t="n">
         <v>1</v>
       </c>
-      <c r="F92" s="5" t="n">
+      <c r="F92" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T92" t="inlineStr">
@@ -2380,7 +2387,7 @@
           <t>CHAIR</t>
         </is>
       </c>
-      <c r="F93" s="5" t="n"/>
+      <c r="F93" s="6" t="n"/>
       <c r="T93" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
@@ -2401,7 +2408,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F94" s="5" t="n"/>
+      <c r="F94" s="6" t="n"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2415,13 +2422,13 @@
           <t>COMPUTER</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E95" t="n">
         <v>1</v>
       </c>
-      <c r="F95" s="5" t="n">
+      <c r="F95" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T95" t="inlineStr">
@@ -2442,13 +2449,13 @@
           <t>PRINTER / FAX MACHINE</t>
         </is>
       </c>
-      <c r="D96" t="n">
+      <c r="D96" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E96" t="n">
         <v>1</v>
       </c>
-      <c r="F96" s="5" t="n">
+      <c r="F96" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T96" t="inlineStr">
@@ -2471,7 +2478,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F97" s="5" t="n"/>
+      <c r="F97" s="6" t="n"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2487,7 +2494,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F98" s="5" t="n"/>
+      <c r="F98" s="6" t="n"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2505,7 +2512,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F99" s="5" t="n"/>
+      <c r="F99" s="6" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
@@ -2545,13 +2552,13 @@
           <t>INSECT CONTROL</t>
         </is>
       </c>
-      <c r="D101" t="n">
+      <c r="D101" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E101" t="n">
         <v>1</v>
       </c>
-      <c r="F101" s="5" t="n">
+      <c r="F101" s="6" t="n">
         <v>0.4</v>
       </c>
       <c r="T101" t="inlineStr">
@@ -2572,13 +2579,13 @@
           <t>DAY FREEZER</t>
         </is>
       </c>
-      <c r="D102" t="n">
+      <c r="D102" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E102" t="n">
         <v>1</v>
       </c>
-      <c r="F102" s="5" t="n">
+      <c r="F102" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T102" t="inlineStr">
@@ -2599,7 +2606,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F103" s="5" t="n"/>
+      <c r="F103" s="6" t="n"/>
       <c r="K103" t="n">
         <v>50</v>
       </c>
@@ -2621,13 +2628,13 @@
           <t>REFRIGERATION SYSTEM</t>
         </is>
       </c>
-      <c r="D104" t="n">
+      <c r="D104" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E104" t="n">
         <v>1</v>
       </c>
-      <c r="F104" s="5" t="n">
+      <c r="F104" s="6" t="n">
         <v>15</v>
       </c>
       <c r="Q104" t="n">
@@ -2659,7 +2666,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F105" s="5" t="n"/>
+      <c r="F105" s="6" t="n"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2673,7 +2680,7 @@
           <t>DAY FREEZER STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F106" s="5" t="n"/>
+      <c r="F106" s="6" t="n"/>
       <c r="T106" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
@@ -2692,7 +2699,7 @@
           <t>SMT RECESSED REMOTE STATION</t>
         </is>
       </c>
-      <c r="F107" s="5" t="n"/>
+      <c r="F107" s="6" t="n"/>
       <c r="G107" t="n">
         <v>10</v>
       </c>
@@ -2714,7 +2721,7 @@
           <t>DRY STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F108" s="5" t="n"/>
+      <c r="F108" s="6" t="n"/>
       <c r="T108" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
@@ -2735,7 +2742,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F109" s="5" t="n"/>
+      <c r="F109" s="6" t="n"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2753,7 +2760,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F110" s="5" t="n"/>
+      <c r="F110" s="6" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
@@ -2793,7 +2800,7 @@
           <t>SLICER CART</t>
         </is>
       </c>
-      <c r="F112" s="5" t="n"/>
+      <c r="F112" s="6" t="n"/>
       <c r="T112" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
@@ -2812,13 +2819,13 @@
           <t>FOOD SLICER</t>
         </is>
       </c>
-      <c r="D113" t="n">
+      <c r="D113" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E113" t="n">
         <v>1</v>
       </c>
-      <c r="F113" s="5" t="n">
+      <c r="F113" s="6" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2834,13 +2841,13 @@
           <t>KNIFE SANITIZER</t>
         </is>
       </c>
-      <c r="D114" t="n">
+      <c r="D114" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E114" t="n">
         <v>1</v>
       </c>
-      <c r="F114" s="5" t="n">
+      <c r="F114" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2856,13 +2863,13 @@
           <t>MEAT PREPARATION TABLE WITH SINK</t>
         </is>
       </c>
-      <c r="D115" t="n">
+      <c r="D115" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E115" t="n">
         <v>1</v>
       </c>
-      <c r="F115" s="5" t="n">
+      <c r="F115" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T115" t="inlineStr">
@@ -2885,7 +2892,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F116" s="5" t="n"/>
+      <c r="F116" s="6" t="n"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2899,7 +2906,7 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F117" s="5" t="n"/>
+      <c r="F117" s="6" t="n"/>
       <c r="T117" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -2918,13 +2925,13 @@
           <t>MEAT GRINDER</t>
         </is>
       </c>
-      <c r="D118" t="n">
+      <c r="D118" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E118" t="n">
         <v>1</v>
       </c>
-      <c r="F118" s="5" t="n">
+      <c r="F118" s="6" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -2940,13 +2947,13 @@
           <t>VACUUM PACKAGING MACHINE</t>
         </is>
       </c>
-      <c r="D119" t="n">
+      <c r="D119" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E119" t="n">
         <v>1</v>
       </c>
-      <c r="F119" s="5" t="n">
+      <c r="F119" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T119" t="inlineStr">
@@ -2969,7 +2976,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F120" s="5" t="n"/>
+      <c r="F120" s="6" t="n"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -2985,7 +2992,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F121" s="5" t="n"/>
+      <c r="F121" s="6" t="n"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -2999,13 +3006,13 @@
           <t>AIR PURIFIER</t>
         </is>
       </c>
-      <c r="D122" t="n">
+      <c r="D122" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E122" t="n">
         <v>1</v>
       </c>
-      <c r="F122" s="5" t="n">
+      <c r="F122" s="6" t="n">
         <v>0.2</v>
       </c>
       <c r="T122" t="inlineStr">
@@ -3026,7 +3033,7 @@
           <t>UNDER COUNTER UTILITY RACK</t>
         </is>
       </c>
-      <c r="F123" s="5" t="n"/>
+      <c r="F123" s="6" t="n"/>
       <c r="T123" t="inlineStr">
         <is>
           <t>MOBILE</t>
@@ -3045,7 +3052,7 @@
           <t>RECESSED CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F124" s="5" t="n"/>
+      <c r="F124" s="6" t="n"/>
       <c r="T124" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #124</t>
@@ -3064,13 +3071,13 @@
           <t>PORTION SCALE</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E125" t="n">
         <v>1</v>
       </c>
-      <c r="F125" s="5" t="n">
+      <c r="F125" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3088,7 +3095,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F126" s="5" t="n"/>
+      <c r="F126" s="6" t="n"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3102,13 +3109,13 @@
           <t>EVAPORATOR COIL</t>
         </is>
       </c>
-      <c r="D127" t="n">
+      <c r="D127" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E127" t="n">
         <v>1</v>
       </c>
-      <c r="F127" s="5" t="n">
+      <c r="F127" s="6" t="n">
         <v>1.5</v>
       </c>
       <c r="J127" t="n">
@@ -3132,7 +3139,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F128" s="5" t="n"/>
+      <c r="F128" s="6" t="n"/>
       <c r="T128" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
@@ -3151,7 +3158,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F129" s="5" t="n"/>
+      <c r="F129" s="6" t="n"/>
       <c r="G129" t="n">
         <v>15</v>
       </c>
@@ -3182,13 +3189,13 @@
           <t>REFRIGERATION SYSTEM</t>
         </is>
       </c>
-      <c r="D130" t="n">
+      <c r="D130" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E130" t="n">
         <v>1</v>
       </c>
-      <c r="F130" s="5" t="n">
+      <c r="F130" s="6" t="n">
         <v>15</v>
       </c>
       <c r="Q130" t="n">
@@ -3220,7 +3227,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F131" s="5" t="n"/>
+      <c r="F131" s="6" t="n"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3234,7 +3241,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F132" s="5" t="n"/>
+      <c r="F132" s="6" t="n"/>
       <c r="T132" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -3253,7 +3260,7 @@
           <t>UV INSPECTION CABINET</t>
         </is>
       </c>
-      <c r="F133" s="5" t="n"/>
+      <c r="F133" s="6" t="n"/>
       <c r="T133" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
@@ -3274,7 +3281,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F134" s="5" t="n"/>
+      <c r="F134" s="6" t="n"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3290,7 +3297,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F135" s="5" t="n"/>
+      <c r="F135" s="6" t="n"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3306,7 +3313,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F136" s="5" t="n"/>
+      <c r="F136" s="6" t="n"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3322,7 +3329,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F137" s="5" t="n"/>
+      <c r="F137" s="6" t="n"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3338,7 +3345,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F138" s="5" t="n"/>
+      <c r="F138" s="6" t="n"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -3354,7 +3361,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F139" s="5" t="n"/>
+      <c r="F139" s="6" t="n"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3370,7 +3377,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F140" s="5" t="n"/>
+      <c r="F140" s="6" t="n"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -3386,7 +3393,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F141" s="5" t="n"/>
+      <c r="F141" s="6" t="n"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3400,13 +3407,13 @@
           <t>MEAT COLD ROOM</t>
         </is>
       </c>
-      <c r="D142" t="n">
+      <c r="D142" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E142" t="n">
         <v>1</v>
       </c>
-      <c r="F142" s="5" t="n">
+      <c r="F142" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T142" t="inlineStr">
@@ -3427,7 +3434,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F143" s="5" t="n"/>
+      <c r="F143" s="6" t="n"/>
       <c r="K143" t="n">
         <v>50</v>
       </c>
@@ -3449,13 +3456,13 @@
           <t>REFRIGERATION SYSTEM</t>
         </is>
       </c>
-      <c r="D144" t="n">
+      <c r="D144" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E144" t="n">
         <v>1</v>
       </c>
-      <c r="F144" s="5" t="n">
+      <c r="F144" s="6" t="n">
         <v>15</v>
       </c>
       <c r="Q144" t="n">
@@ -3485,7 +3492,7 @@
           <t>MEAT COLD STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F145" s="5" t="n"/>
+      <c r="F145" s="6" t="n"/>
       <c r="T145" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
@@ -3508,7 +3515,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F146" s="5" t="n"/>
+      <c r="F146" s="6" t="n"/>
     </row>
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
@@ -3550,7 +3557,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F148" s="5" t="n"/>
+      <c r="F148" s="6" t="n"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3564,7 +3571,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F149" s="5" t="n"/>
+      <c r="F149" s="6" t="n"/>
       <c r="G149" t="n">
         <v>15</v>
       </c>
@@ -3595,7 +3602,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F150" s="5" t="n"/>
+      <c r="F150" s="6" t="n"/>
       <c r="T150" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -3614,7 +3621,7 @@
           <t>UV INSPECTION CABINET</t>
         </is>
       </c>
-      <c r="F151" s="5" t="n"/>
+      <c r="F151" s="6" t="n"/>
       <c r="T151" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
@@ -3633,13 +3640,13 @@
           <t>FISH PREPARATION TABLE WITH MIXER RECESS</t>
         </is>
       </c>
-      <c r="D152" t="n">
+      <c r="D152" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E152" t="n">
         <v>1</v>
       </c>
-      <c r="F152" s="5" t="n">
+      <c r="F152" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T152" t="inlineStr">
@@ -3660,7 +3667,7 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F153" s="5" t="n"/>
+      <c r="F153" s="6" t="n"/>
       <c r="T153" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -3681,7 +3688,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F154" s="5" t="n"/>
+      <c r="F154" s="6" t="n"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3697,7 +3704,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F155" s="5" t="n"/>
+      <c r="F155" s="6" t="n"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -3711,7 +3718,7 @@
           <t>FISH SINK WITH RECESSED CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F156" s="5" t="n"/>
+      <c r="F156" s="6" t="n"/>
       <c r="J156" t="n">
         <v>40</v>
       </c>
@@ -3733,7 +3740,7 @@
           <t>PRE-RINSE UNIT</t>
         </is>
       </c>
-      <c r="F157" s="5" t="n"/>
+      <c r="F157" s="6" t="n"/>
       <c r="G157" t="n">
         <v>15</v>
       </c>
@@ -3761,7 +3768,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F158" s="5" t="n"/>
+      <c r="F158" s="6" t="n"/>
       <c r="T158" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
@@ -3780,13 +3787,13 @@
           <t>AIR PURIFIER</t>
         </is>
       </c>
-      <c r="D159" t="n">
+      <c r="D159" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E159" t="n">
         <v>1</v>
       </c>
-      <c r="F159" s="5" t="n">
+      <c r="F159" s="6" t="n">
         <v>0.2</v>
       </c>
       <c r="T159" t="inlineStr">
@@ -3809,7 +3816,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F160" s="5" t="n"/>
+      <c r="F160" s="6" t="n"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -3823,13 +3830,13 @@
           <t>FOOD PROCESSOR</t>
         </is>
       </c>
-      <c r="D161" t="n">
+      <c r="D161" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E161" t="n">
         <v>1</v>
       </c>
-      <c r="F161" s="5" t="n">
+      <c r="F161" s="6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3845,13 +3852,13 @@
           <t>EVAPORATOR COIL</t>
         </is>
       </c>
-      <c r="D162" t="n">
+      <c r="D162" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E162" t="n">
         <v>1</v>
       </c>
-      <c r="F162" s="5" t="n">
+      <c r="F162" s="6" t="n">
         <v>3.7</v>
       </c>
       <c r="J162" t="n">
@@ -3875,13 +3882,13 @@
           <t>VACUUM PACKAGING MACHINE</t>
         </is>
       </c>
-      <c r="D163" t="n">
+      <c r="D163" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E163" t="n">
         <v>1</v>
       </c>
-      <c r="F163" s="5" t="n">
+      <c r="F163" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T163" t="inlineStr">
@@ -3902,13 +3909,13 @@
           <t>REFRIGERATION SYSTEM</t>
         </is>
       </c>
-      <c r="D164" t="n">
+      <c r="D164" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E164" t="n">
         <v>1</v>
       </c>
-      <c r="F164" s="5" t="n">
+      <c r="F164" s="6" t="n">
         <v>4</v>
       </c>
       <c r="Q164" t="n">
@@ -3940,7 +3947,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F165" s="5" t="n"/>
+      <c r="F165" s="6" t="n"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -3954,7 +3961,7 @@
           <t>RECESSED CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F166" s="5" t="n"/>
+      <c r="F166" s="6" t="n"/>
       <c r="T166" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #167</t>
@@ -3973,13 +3980,13 @@
           <t>PORTION SCALE</t>
         </is>
       </c>
-      <c r="D167" t="n">
+      <c r="D167" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E167" t="n">
         <v>1</v>
       </c>
-      <c r="F167" s="5" t="n">
+      <c r="F167" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3995,7 +4002,7 @@
           <t>UNDER COUNTER UTILITY RACK</t>
         </is>
       </c>
-      <c r="F168" s="5" t="n"/>
+      <c r="F168" s="6" t="n"/>
       <c r="T168" t="inlineStr">
         <is>
           <t>MOBILE</t>
@@ -4014,13 +4021,13 @@
           <t>KNIFE SANITIZER</t>
         </is>
       </c>
-      <c r="D169" t="n">
+      <c r="D169" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E169" t="n">
         <v>1</v>
       </c>
-      <c r="F169" s="5" t="n">
+      <c r="F169" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -4038,7 +4045,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F170" s="5" t="n"/>
+      <c r="F170" s="6" t="n"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4052,13 +4059,13 @@
           <t>PLANETARY MIXER</t>
         </is>
       </c>
-      <c r="D171" t="n">
+      <c r="D171" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E171" t="n">
         <v>1</v>
       </c>
-      <c r="F171" s="5" t="n">
+      <c r="F171" s="6" t="n">
         <v>3.3</v>
       </c>
     </row>
@@ -4074,7 +4081,7 @@
           <t>MIXER UTENSIL RACK</t>
         </is>
       </c>
-      <c r="F172" s="5" t="n"/>
+      <c r="F172" s="6" t="n"/>
       <c r="T172" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -4095,7 +4102,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F173" s="5" t="n"/>
+      <c r="F173" s="6" t="n"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4111,7 +4118,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F174" s="5" t="n"/>
+      <c r="F174" s="6" t="n"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4129,7 +4136,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F175" s="5" t="n"/>
+      <c r="F175" s="6" t="n"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -4143,13 +4150,13 @@
           <t>FISH COLD ROOM</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E176" t="n">
         <v>1</v>
       </c>
-      <c r="F176" s="5" t="n">
+      <c r="F176" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T176" t="inlineStr">
@@ -4170,7 +4177,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F177" s="5" t="n"/>
+      <c r="F177" s="6" t="n"/>
       <c r="K177" t="n">
         <v>50</v>
       </c>
@@ -4192,13 +4199,13 @@
           <t>REFRIGERATION SYSTEM</t>
         </is>
       </c>
-      <c r="D178" t="n">
+      <c r="D178" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E178" t="n">
         <v>1</v>
       </c>
-      <c r="F178" s="5" t="n">
+      <c r="F178" s="6" t="n">
         <v>15</v>
       </c>
       <c r="Q178" t="n">
@@ -4230,7 +4237,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F179" s="5" t="n"/>
+      <c r="F179" s="6" t="n"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -4246,7 +4253,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F180" s="5" t="n"/>
+      <c r="F180" s="6" t="n"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -4260,7 +4267,7 @@
           <t>FISH COLD STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F181" s="5" t="n"/>
+      <c r="F181" s="6" t="n"/>
       <c r="T181" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
@@ -4279,7 +4286,7 @@
           <t>UTILITY RACK</t>
         </is>
       </c>
-      <c r="F182" s="5" t="n"/>
+      <c r="F182" s="6" t="n"/>
       <c r="T182" t="inlineStr">
         <is>
           <t>MOBILE</t>
@@ -4298,13 +4305,13 @@
           <t>REACH-IN ULTRA LOW TEMP FREEZER</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E183" t="n">
         <v>1</v>
       </c>
-      <c r="F183" s="5" t="n">
+      <c r="F183" s="6" t="n">
         <v>6.5</v>
       </c>
       <c r="T183" t="inlineStr">
@@ -4325,7 +4332,7 @@
           <t>SMT RECESSED REMOTE STATION</t>
         </is>
       </c>
-      <c r="F184" s="5" t="n"/>
+      <c r="F184" s="6" t="n"/>
       <c r="G184" t="n">
         <v>10</v>
       </c>
@@ -4351,7 +4358,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F185" s="5" t="n"/>
+      <c r="F185" s="6" t="n"/>
     </row>
     <row r="186">
       <c r="A186" s="3" t="inlineStr">
@@ -4391,7 +4398,7 @@
           <t>WATER FILTRATION SYSTEM</t>
         </is>
       </c>
-      <c r="F187" s="5" t="n"/>
+      <c r="F187" s="6" t="n"/>
       <c r="G187" t="n">
         <v>20</v>
       </c>
@@ -4413,13 +4420,13 @@
           <t>ICE MACHINE</t>
         </is>
       </c>
-      <c r="D188" t="n">
+      <c r="D188" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E188" t="n">
         <v>1</v>
       </c>
-      <c r="F188" s="5" t="n">
+      <c r="F188" s="6" t="n">
         <v>6.6</v>
       </c>
       <c r="G188" t="n">
@@ -4455,7 +4462,7 @@
           <t>ICE BIN</t>
         </is>
       </c>
-      <c r="F189" s="5" t="n"/>
+      <c r="F189" s="6" t="n"/>
       <c r="T189" t="inlineStr">
         <is>
           <t>454 KG.</t>
@@ -4474,7 +4481,7 @@
           <t>ICE TRANSPORT CART</t>
         </is>
       </c>
-      <c r="F190" s="5" t="n"/>
+      <c r="F190" s="6" t="n"/>
       <c r="T190" t="inlineStr">
         <is>
           <t>80 KG. MOBILE</t>
@@ -4495,7 +4502,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F191" s="5" t="n"/>
+      <c r="F191" s="6" t="n"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -4509,7 +4516,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F192" s="5" t="n"/>
+      <c r="F192" s="6" t="n"/>
       <c r="K192" t="n">
         <v>50</v>
       </c>
@@ -4531,7 +4538,7 @@
           <t>ICE BIN</t>
         </is>
       </c>
-      <c r="F193" s="5" t="n"/>
+      <c r="F193" s="6" t="n"/>
       <c r="J193" t="n">
         <v>25</v>
       </c>
@@ -4553,13 +4560,13 @@
           <t>ICE MACHINE</t>
         </is>
       </c>
-      <c r="D194" t="n">
+      <c r="D194" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E194" t="n">
         <v>1</v>
       </c>
-      <c r="F194" s="5" t="n">
+      <c r="F194" s="6" t="n">
         <v>5.2</v>
       </c>
       <c r="G194" t="n">
@@ -4597,7 +4604,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F195" s="5" t="n"/>
+      <c r="F195" s="6" t="n"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -4613,7 +4620,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F196" s="5" t="n"/>
+      <c r="F196" s="6" t="n"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -4627,7 +4634,7 @@
           <t>ICE TRANSPORT CART</t>
         </is>
       </c>
-      <c r="F197" s="5" t="n"/>
+      <c r="F197" s="6" t="n"/>
       <c r="T197" t="inlineStr">
         <is>
           <t>114KG. MOBILE</t>
@@ -4646,13 +4653,13 @@
           <t>ICE MACHINE</t>
         </is>
       </c>
-      <c r="D198" t="n">
+      <c r="D198" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E198" t="n">
         <v>1</v>
       </c>
-      <c r="F198" s="5" t="n">
+      <c r="F198" s="6" t="n">
         <v>15.8</v>
       </c>
       <c r="Q198" t="n">
@@ -4682,7 +4689,7 @@
           <t>WATER FILTRATION SYSTEM</t>
         </is>
       </c>
-      <c r="F199" s="5" t="n"/>
+      <c r="F199" s="6" t="n"/>
       <c r="G199" t="n">
         <v>20</v>
       </c>
@@ -4704,7 +4711,7 @@
           <t>WATER FILTRATION SYSTEM</t>
         </is>
       </c>
-      <c r="F200" s="5" t="n"/>
+      <c r="F200" s="6" t="n"/>
       <c r="G200" t="n">
         <v>20</v>
       </c>
@@ -4733,7 +4740,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F201" s="5" t="n"/>
+      <c r="F201" s="6" t="n"/>
     </row>
     <row r="202">
       <c r="A202" s="3" t="inlineStr">
@@ -4773,13 +4780,13 @@
           <t>PRODUCE DRYER</t>
         </is>
       </c>
-      <c r="D203" t="n">
+      <c r="D203" s="5" t="n">
         <v>208</v>
       </c>
       <c r="E203" t="n">
         <v>3</v>
       </c>
-      <c r="F203" s="5" t="n">
+      <c r="F203" s="6" t="n">
         <v>3.4</v>
       </c>
       <c r="J203" t="n">
@@ -4798,7 +4805,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F204" s="5" t="n"/>
+      <c r="F204" s="6" t="n"/>
       <c r="K204" t="n">
         <v>50</v>
       </c>
@@ -4820,13 +4827,13 @@
           <t>PRODUCE PREPARATION TABLE WITH SINKS AND MIXER RECESS</t>
         </is>
       </c>
-      <c r="D205" t="n">
+      <c r="D205" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E205" t="n">
         <v>1</v>
       </c>
-      <c r="F205" s="5" t="n">
+      <c r="F205" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T205" t="inlineStr">
@@ -4847,7 +4854,7 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F206" s="5" t="n"/>
+      <c r="F206" s="6" t="n"/>
       <c r="T206" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -4866,7 +4873,7 @@
           <t>SMT RECESSED REMOTE STATION</t>
         </is>
       </c>
-      <c r="F207" s="5" t="n"/>
+      <c r="F207" s="6" t="n"/>
       <c r="G207" t="n">
         <v>10</v>
       </c>
@@ -4888,13 +4895,13 @@
           <t>FOOD PROCESSOR</t>
         </is>
       </c>
-      <c r="D208" t="n">
+      <c r="D208" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E208" t="n">
         <v>1</v>
       </c>
-      <c r="F208" s="5" t="n">
+      <c r="F208" s="6" t="n">
         <v>3.7</v>
       </c>
     </row>
@@ -4910,7 +4917,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F209" s="5" t="n"/>
+      <c r="F209" s="6" t="n"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -4924,13 +4931,13 @@
           <t>VEGETABLE CUTTER</t>
         </is>
       </c>
-      <c r="D210" t="n">
+      <c r="D210" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E210" t="n">
         <v>1</v>
       </c>
-      <c r="F210" s="5" t="n">
+      <c r="F210" s="6" t="n">
         <v>3.7</v>
       </c>
     </row>
@@ -4948,7 +4955,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F211" s="5" t="n"/>
+      <c r="F211" s="6" t="n"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -4964,7 +4971,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F212" s="5" t="n"/>
+      <c r="F212" s="6" t="n"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -4978,13 +4985,13 @@
           <t>VEGETABLE SLICER</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E213" t="n">
         <v>1</v>
       </c>
-      <c r="F213" s="5" t="n">
+      <c r="F213" s="6" t="n">
         <v>7.6</v>
       </c>
     </row>
@@ -5000,13 +5007,13 @@
           <t>AIR PURIFIER</t>
         </is>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E214" t="n">
         <v>1</v>
       </c>
-      <c r="F214" s="5" t="n">
+      <c r="F214" s="6" t="n">
         <v>0.2</v>
       </c>
       <c r="T214" t="inlineStr">
@@ -5027,13 +5034,13 @@
           <t>PLANETARY MIXER</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E215" t="n">
         <v>1</v>
       </c>
-      <c r="F215" s="5" t="n">
+      <c r="F215" s="6" t="n">
         <v>3.3</v>
       </c>
     </row>
@@ -5049,7 +5056,7 @@
           <t>MIXER UTENSIL RACK</t>
         </is>
       </c>
-      <c r="F216" s="5" t="n"/>
+      <c r="F216" s="6" t="n"/>
       <c r="T216" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -5070,7 +5077,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F217" s="5" t="n"/>
+      <c r="F217" s="6" t="n"/>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -5084,13 +5091,13 @@
           <t>PRODUCE COLD ROOM</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E218" t="n">
         <v>1</v>
       </c>
-      <c r="F218" s="5" t="n">
+      <c r="F218" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T218" t="inlineStr">
@@ -5111,7 +5118,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F219" s="5" t="n"/>
+      <c r="F219" s="6" t="n"/>
       <c r="K219" t="n">
         <v>50</v>
       </c>
@@ -5133,13 +5140,13 @@
           <t>REFRIGERATION SYSTEM</t>
         </is>
       </c>
-      <c r="D220" t="n">
+      <c r="D220" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E220" t="n">
         <v>1</v>
       </c>
-      <c r="F220" s="5" t="n">
+      <c r="F220" s="6" t="n">
         <v>15</v>
       </c>
       <c r="Q220" t="n">
@@ -5171,7 +5178,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F221" s="5" t="n"/>
+      <c r="F221" s="6" t="n"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -5187,7 +5194,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F222" s="5" t="n"/>
+      <c r="F222" s="6" t="n"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -5201,7 +5208,7 @@
           <t>PRODUCE COLD STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F223" s="5" t="n"/>
+      <c r="F223" s="6" t="n"/>
       <c r="T223" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
@@ -5220,7 +5227,7 @@
           <t>UTILITY RACK</t>
         </is>
       </c>
-      <c r="F224" s="5" t="n"/>
+      <c r="F224" s="6" t="n"/>
       <c r="T224" t="inlineStr">
         <is>
           <t>MOBILE</t>
@@ -5239,13 +5246,13 @@
           <t>KNIFE SANITIZER</t>
         </is>
       </c>
-      <c r="D225" t="n">
+      <c r="D225" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E225" t="n">
         <v>1</v>
       </c>
-      <c r="F225" s="5" t="n">
+      <c r="F225" s="6" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -5261,13 +5268,13 @@
           <t>PRODUCE PREPARATION TABLE</t>
         </is>
       </c>
-      <c r="D226" t="n">
+      <c r="D226" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E226" t="n">
         <v>1</v>
       </c>
-      <c r="F226" s="5" t="n">
+      <c r="F226" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T226" t="inlineStr">
@@ -5290,7 +5297,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F227" s="5" t="n"/>
+      <c r="F227" s="6" t="n"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -5304,7 +5311,7 @@
           <t>RECESSED CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F228" s="5" t="n"/>
+      <c r="F228" s="6" t="n"/>
       <c r="T228" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -5323,7 +5330,7 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F229" s="5" t="n"/>
+      <c r="F229" s="6" t="n"/>
       <c r="T229" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -5342,13 +5349,13 @@
           <t>EVAPORATOR COIL</t>
         </is>
       </c>
-      <c r="D230" t="n">
+      <c r="D230" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E230" t="n">
         <v>1</v>
       </c>
-      <c r="F230" s="5" t="n">
+      <c r="F230" s="6" t="n">
         <v>1.5</v>
       </c>
       <c r="J230" t="n">
@@ -5372,13 +5379,13 @@
           <t>REFRIGERATION SYSTEM</t>
         </is>
       </c>
-      <c r="D231" t="n">
+      <c r="D231" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E231" t="n">
         <v>1</v>
       </c>
-      <c r="F231" s="5" t="n">
+      <c r="F231" s="6" t="n">
         <v>15</v>
       </c>
       <c r="Q231" t="n">
@@ -5410,7 +5417,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F232" s="5" t="n"/>
+      <c r="F232" s="6" t="n"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -5426,7 +5433,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F233" s="5" t="n"/>
+      <c r="F233" s="6" t="n"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -5440,7 +5447,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F234" s="5" t="n"/>
+      <c r="F234" s="6" t="n"/>
       <c r="T234" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
@@ -5459,7 +5466,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F235" s="5" t="n"/>
+      <c r="F235" s="6" t="n"/>
       <c r="G235" t="n">
         <v>15</v>
       </c>
@@ -5490,7 +5497,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F236" s="5" t="n"/>
+      <c r="F236" s="6" t="n"/>
       <c r="T236" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -5511,7 +5518,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F237" s="5" t="n"/>
+      <c r="F237" s="6" t="n"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -5525,7 +5532,7 @@
           <t>UV INSPECTION CABINET</t>
         </is>
       </c>
-      <c r="F238" s="5" t="n"/>
+      <c r="F238" s="6" t="n"/>
       <c r="T238" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
@@ -5546,7 +5553,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F239" s="5" t="n"/>
+      <c r="F239" s="6" t="n"/>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -5562,7 +5569,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F240" s="5" t="n"/>
+      <c r="F240" s="6" t="n"/>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -5578,7 +5585,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F241" s="5" t="n"/>
+      <c r="F241" s="6" t="n"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -5596,7 +5603,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F242" s="5" t="n"/>
+      <c r="F242" s="6" t="n"/>
     </row>
     <row r="243">
       <c r="A243" s="3" t="inlineStr">
@@ -5636,7 +5643,7 @@
           <t>GLASS WASH TABLE</t>
         </is>
       </c>
-      <c r="F244" s="5" t="n"/>
+      <c r="F244" s="6" t="n"/>
       <c r="T244" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -5655,13 +5662,13 @@
           <t>UNDER COUNTER GLASS WASH MACHINE</t>
         </is>
       </c>
-      <c r="D245" t="n">
+      <c r="D245" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E245" t="n">
         <v>1</v>
       </c>
-      <c r="F245" s="5" t="n">
+      <c r="F245" s="6" t="n">
         <v>14.3</v>
       </c>
       <c r="H245" t="n">
@@ -5691,7 +5698,7 @@
           <t>GLASS RACK SHELF</t>
         </is>
       </c>
-      <c r="F246" s="5" t="n"/>
+      <c r="F246" s="6" t="n"/>
       <c r="T246" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
@@ -5710,13 +5717,13 @@
           <t>UNDER COUNTER GLASS WASH MACHINE</t>
         </is>
       </c>
-      <c r="D247" t="n">
+      <c r="D247" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E247" t="n">
         <v>1</v>
       </c>
-      <c r="F247" s="5" t="n">
+      <c r="F247" s="6" t="n">
         <v>14.3</v>
       </c>
       <c r="H247" t="n">
@@ -5748,7 +5755,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F248" s="5" t="n"/>
+      <c r="F248" s="6" t="n"/>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -5762,7 +5769,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F249" s="5" t="n"/>
+      <c r="F249" s="6" t="n"/>
       <c r="G249" t="n">
         <v>15</v>
       </c>
@@ -5793,7 +5800,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F250" s="5" t="n"/>
+      <c r="F250" s="6" t="n"/>
       <c r="T250" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -5812,7 +5819,7 @@
           <t>UV INSPECTION CABINET</t>
         </is>
       </c>
-      <c r="F251" s="5" t="n"/>
+      <c r="F251" s="6" t="n"/>
       <c r="T251" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
@@ -5833,7 +5840,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F252" s="5" t="n"/>
+      <c r="F252" s="6" t="n"/>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -5849,7 +5856,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F253" s="5" t="n"/>
+      <c r="F253" s="6" t="n"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -5863,7 +5870,7 @@
           <t>HOSE REEL CONTROL CABINET</t>
         </is>
       </c>
-      <c r="F254" s="5" t="n"/>
+      <c r="F254" s="6" t="n"/>
       <c r="G254" t="n">
         <v>15</v>
       </c>
@@ -5891,7 +5898,7 @@
           <t>SOILED DISH TABLE</t>
         </is>
       </c>
-      <c r="F255" s="5" t="n"/>
+      <c r="F255" s="6" t="n"/>
       <c r="T255" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH TROUGH AND TROUGH COVERS</t>
@@ -5910,13 +5917,13 @@
           <t>FOOD WASTE COLLECTOR</t>
         </is>
       </c>
-      <c r="D256" t="n">
+      <c r="D256" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E256" t="n">
         <v>1</v>
       </c>
-      <c r="F256" s="5" t="n">
+      <c r="F256" s="6" t="n">
         <v>5.5</v>
       </c>
       <c r="G256" t="n">
@@ -5949,7 +5956,7 @@
           <t>PASS-THRU WINDOW AND DROP SHELF</t>
         </is>
       </c>
-      <c r="F257" s="5" t="n"/>
+      <c r="F257" s="6" t="n"/>
       <c r="T257" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -5970,7 +5977,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F258" s="5" t="n"/>
+      <c r="F258" s="6" t="n"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -5984,7 +5991,7 @@
           <t>SILVERWARE CHUTE</t>
         </is>
       </c>
-      <c r="F259" s="5" t="n"/>
+      <c r="F259" s="6" t="n"/>
       <c r="T259" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -6003,7 +6010,7 @@
           <t>SILVER SOAK SINK</t>
         </is>
       </c>
-      <c r="F260" s="5" t="n"/>
+      <c r="F260" s="6" t="n"/>
       <c r="T260" t="inlineStr">
         <is>
           <t>MOBILE</t>
@@ -6022,7 +6029,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F261" s="5" t="n"/>
+      <c r="F261" s="6" t="n"/>
       <c r="T261" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
@@ -6043,7 +6050,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F262" s="5" t="n"/>
+      <c r="F262" s="6" t="n"/>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -6059,7 +6066,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F263" s="5" t="n"/>
+      <c r="F263" s="6" t="n"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -6073,7 +6080,7 @@
           <t>HOSE REEL</t>
         </is>
       </c>
-      <c r="F264" s="5" t="n"/>
+      <c r="F264" s="6" t="n"/>
       <c r="T264" t="inlineStr">
         <is>
           <t>CEILING MOUNT</t>
@@ -6092,7 +6099,7 @@
           <t>GLASS RACK SHELF</t>
         </is>
       </c>
-      <c r="F265" s="5" t="n"/>
+      <c r="F265" s="6" t="n"/>
       <c r="T265" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
@@ -6111,7 +6118,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F266" s="5" t="n"/>
+      <c r="F266" s="6" t="n"/>
       <c r="K266" t="n">
         <v>50</v>
       </c>
@@ -6133,7 +6140,7 @@
           <t>SILVERWARE CHUTE</t>
         </is>
       </c>
-      <c r="F267" s="5" t="n"/>
+      <c r="F267" s="6" t="n"/>
       <c r="T267" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -6154,7 +6161,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F268" s="5" t="n"/>
+      <c r="F268" s="6" t="n"/>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -6168,7 +6175,7 @@
           <t>SILVER SOAK SINK</t>
         </is>
       </c>
-      <c r="F269" s="5" t="n"/>
+      <c r="F269" s="6" t="n"/>
       <c r="T269" t="inlineStr">
         <is>
           <t>MOBILE</t>
@@ -6187,7 +6194,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F270" s="5" t="n"/>
+      <c r="F270" s="6" t="n"/>
       <c r="T270" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
@@ -6206,7 +6213,7 @@
           <t>CORNER CONVEYOR LOADING TABLE</t>
         </is>
       </c>
-      <c r="F271" s="5" t="n"/>
+      <c r="F271" s="6" t="n"/>
       <c r="J271" t="n">
         <v>40</v>
       </c>
@@ -6225,7 +6232,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F272" s="5" t="n"/>
+      <c r="F272" s="6" t="n"/>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -6241,7 +6248,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F273" s="5" t="n"/>
+      <c r="F273" s="6" t="n"/>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -6255,13 +6262,13 @@
           <t>DISH MACHINE</t>
         </is>
       </c>
-      <c r="D274" t="n">
+      <c r="D274" s="5" t="n">
         <v>400</v>
       </c>
       <c r="E274" t="n">
         <v>3</v>
       </c>
-      <c r="F274" s="5" t="n">
+      <c r="F274" s="6" t="n">
         <v>50</v>
       </c>
       <c r="H274" t="n">
@@ -6294,7 +6301,7 @@
           <t>CLEAN DISH TABLE</t>
         </is>
       </c>
-      <c r="F275" s="5" t="n"/>
+      <c r="F275" s="6" t="n"/>
       <c r="T275" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -6313,7 +6320,7 @@
           <t>GLASS RACK SHELF</t>
         </is>
       </c>
-      <c r="F276" s="5" t="n"/>
+      <c r="F276" s="6" t="n"/>
       <c r="T276" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
@@ -6332,7 +6339,7 @@
           <t>PASS-THRU WINDOW AND SHELF</t>
         </is>
       </c>
-      <c r="F277" s="5" t="n"/>
+      <c r="F277" s="6" t="n"/>
       <c r="T277" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -6353,7 +6360,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F278" s="5" t="n"/>
+      <c r="F278" s="6" t="n"/>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -6367,7 +6374,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F279" s="5" t="n"/>
+      <c r="F279" s="6" t="n"/>
       <c r="G279" t="n">
         <v>15</v>
       </c>
@@ -6398,7 +6405,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F280" s="5" t="n"/>
+      <c r="F280" s="6" t="n"/>
       <c r="T280" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -6417,7 +6424,7 @@
           <t>UV INSPECTION CABINET</t>
         </is>
       </c>
-      <c r="F281" s="5" t="n"/>
+      <c r="F281" s="6" t="n"/>
       <c r="T281" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
@@ -6438,7 +6445,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F282" s="5" t="n"/>
+      <c r="F282" s="6" t="n"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -6454,7 +6461,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F283" s="5" t="n"/>
+      <c r="F283" s="6" t="n"/>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -6468,7 +6475,7 @@
           <t>HOSE REEL CONTROL CABINET</t>
         </is>
       </c>
-      <c r="F284" s="5" t="n"/>
+      <c r="F284" s="6" t="n"/>
       <c r="G284" t="n">
         <v>15</v>
       </c>
@@ -6496,7 +6503,7 @@
           <t>POT SINK</t>
         </is>
       </c>
-      <c r="F285" s="5" t="n"/>
+      <c r="F285" s="6" t="n"/>
       <c r="G285" t="inlineStr">
         <is>
           <t>(2)20</t>
@@ -6531,7 +6538,7 @@
           <t>POT SHELF</t>
         </is>
       </c>
-      <c r="F286" s="5" t="n"/>
+      <c r="F286" s="6" t="n"/>
       <c r="T286" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -6550,7 +6557,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F287" s="5" t="n"/>
+      <c r="F287" s="6" t="n"/>
       <c r="T287" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
@@ -6571,7 +6578,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F288" s="5" t="n"/>
+      <c r="F288" s="6" t="n"/>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -6585,7 +6592,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F289" s="5" t="n"/>
+      <c r="F289" s="6" t="n"/>
       <c r="K289" t="n">
         <v>50</v>
       </c>
@@ -6607,7 +6614,7 @@
           <t>HOSE REEL</t>
         </is>
       </c>
-      <c r="F290" s="5" t="n"/>
+      <c r="F290" s="6" t="n"/>
       <c r="T290" t="inlineStr">
         <is>
           <t>CEILING MOUNT</t>
@@ -6626,7 +6633,7 @@
           <t>POT AND PAN DRYING RACK</t>
         </is>
       </c>
-      <c r="F291" s="5" t="n"/>
+      <c r="F291" s="6" t="n"/>
       <c r="T291" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
@@ -6647,7 +6654,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F292" s="5" t="n"/>
+      <c r="F292" s="6" t="n"/>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -6663,7 +6670,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F293" s="5" t="n"/>
+      <c r="F293" s="6" t="n"/>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -6679,7 +6686,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F294" s="5" t="n"/>
+      <c r="F294" s="6" t="n"/>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -6695,7 +6702,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F295" s="5" t="n"/>
+      <c r="F295" s="6" t="n"/>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -6711,7 +6718,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F296" s="5" t="n"/>
+      <c r="F296" s="6" t="n"/>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -6727,7 +6734,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F297" s="5" t="n"/>
+      <c r="F297" s="6" t="n"/>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -6743,7 +6750,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F298" s="5" t="n"/>
+      <c r="F298" s="6" t="n"/>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -6757,7 +6764,7 @@
           <t>REVERSE OSMOSIS SYSTEM</t>
         </is>
       </c>
-      <c r="F299" s="5" t="n"/>
+      <c r="F299" s="6" t="n"/>
       <c r="G299" t="n">
         <v>10</v>
       </c>
@@ -6785,7 +6792,7 @@
           <t>REVERSE OSMOSIS STORAGE TANK</t>
         </is>
       </c>
-      <c r="F300" s="5" t="n"/>
+      <c r="F300" s="6" t="n"/>
       <c r="G300" t="n">
         <v>10</v>
       </c>
@@ -6807,7 +6814,7 @@
           <t>MOP RACK</t>
         </is>
       </c>
-      <c r="F301" s="5" t="n"/>
+      <c r="F301" s="6" t="n"/>
       <c r="T301" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
@@ -6828,7 +6835,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F302" s="5" t="n"/>
+      <c r="F302" s="6" t="n"/>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -6844,7 +6851,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F303" s="5" t="n"/>
+      <c r="F303" s="6" t="n"/>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -6858,7 +6865,7 @@
           <t>MOP SINK CABINET</t>
         </is>
       </c>
-      <c r="F304" s="5" t="n"/>
+      <c r="F304" s="6" t="n"/>
       <c r="G304" t="n">
         <v>15</v>
       </c>
@@ -6881,7 +6888,7 @@
           <t>DUMBWAITER</t>
         </is>
       </c>
-      <c r="F305" s="5" t="n"/>
+      <c r="F305" s="6" t="n"/>
       <c r="T305" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
@@ -6902,7 +6909,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F306" s="5" t="n"/>
+      <c r="F306" s="6" t="n"/>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -6918,7 +6925,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F307" s="5" t="n"/>
+      <c r="F307" s="6" t="n"/>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -6934,7 +6941,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F308" s="5" t="n"/>
+      <c r="F308" s="6" t="n"/>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -6950,7 +6957,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F309" s="5" t="n"/>
+      <c r="F309" s="6" t="n"/>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -6964,7 +6971,7 @@
           <t>SMT RECESSED REMOTE STATION</t>
         </is>
       </c>
-      <c r="F310" s="5" t="n"/>
+      <c r="F310" s="6" t="n"/>
       <c r="G310" t="n">
         <v>10</v>
       </c>
@@ -6986,7 +6993,7 @@
           <t>PLASTIC DOOR</t>
         </is>
       </c>
-      <c r="F311" s="5" t="n"/>
+      <c r="F311" s="6" t="n"/>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -7002,7 +7009,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F312" s="5" t="n"/>
+      <c r="F312" s="6" t="n"/>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -7018,7 +7025,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F313" s="5" t="n"/>
+      <c r="F313" s="6" t="n"/>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -7032,13 +7039,13 @@
           <t>GLASS POLISHING TABLE</t>
         </is>
       </c>
-      <c r="D314" t="n">
+      <c r="D314" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E314" t="n">
         <v>1</v>
       </c>
-      <c r="F314" s="5" t="n">
+      <c r="F314" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T314" t="inlineStr">
@@ -7059,7 +7066,7 @@
           <t>RACK SHELF</t>
         </is>
       </c>
-      <c r="F315" s="5" t="n"/>
+      <c r="F315" s="6" t="n"/>
       <c r="T315" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
@@ -7078,7 +7085,7 @@
           <t>CLEAN DISH STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F316" s="5" t="n"/>
+      <c r="F316" s="6" t="n"/>
       <c r="T316" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
@@ -7099,7 +7106,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F317" s="5" t="n"/>
+      <c r="F317" s="6" t="n"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -7117,7 +7124,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F318" s="5" t="n"/>
+      <c r="F318" s="6" t="n"/>
     </row>
     <row r="319">
       <c r="A319" s="3" t="inlineStr">
@@ -7157,7 +7164,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F320" s="5" t="n"/>
+      <c r="F320" s="6" t="n"/>
       <c r="G320" t="n">
         <v>15</v>
       </c>
@@ -7188,7 +7195,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F321" s="5" t="n"/>
+      <c r="F321" s="6" t="n"/>
       <c r="T321" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -7207,7 +7214,7 @@
           <t>UV INSPECTION CABINET</t>
         </is>
       </c>
-      <c r="F322" s="5" t="n"/>
+      <c r="F322" s="6" t="n"/>
       <c r="T322" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
@@ -7226,13 +7233,13 @@
           <t>BEVERAGE COUNTER</t>
         </is>
       </c>
-      <c r="D323" t="n">
+      <c r="D323" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E323" t="n">
         <v>1</v>
       </c>
-      <c r="F323" s="5" t="n">
+      <c r="F323" s="6" t="n">
         <v>40</v>
       </c>
       <c r="T323" t="inlineStr">
@@ -7255,7 +7262,7 @@
           <t>BEVERAGE CONDUIT WITH STAINLESS STEEL CHASE</t>
         </is>
       </c>
-      <c r="F324" s="5" t="n"/>
+      <c r="F324" s="6" t="n"/>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -7269,7 +7276,7 @@
           <t>BEER DISPENSING TOWER</t>
         </is>
       </c>
-      <c r="F325" s="5" t="n"/>
+      <c r="F325" s="6" t="n"/>
       <c r="T325" t="inlineStr">
         <is>
           <t>FOUR TAPS</t>
@@ -7288,7 +7295,7 @@
           <t>DRIP TROUGH WITH GLASS RINSER</t>
         </is>
       </c>
-      <c r="F326" s="5" t="n"/>
+      <c r="F326" s="6" t="n"/>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -7302,7 +7309,7 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F327" s="5" t="n"/>
+      <c r="F327" s="6" t="n"/>
       <c r="T327" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -7323,7 +7330,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F328" s="5" t="n"/>
+      <c r="F328" s="6" t="n"/>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -7339,7 +7346,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F329" s="5" t="n"/>
+      <c r="F329" s="6" t="n"/>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -7353,7 +7360,7 @@
           <t>GLASS FROSTER</t>
         </is>
       </c>
-      <c r="F330" s="5" t="n"/>
+      <c r="F330" s="6" t="n"/>
       <c r="T330" t="inlineStr">
         <is>
           <t>MOUNTED TO ITEM #404</t>
@@ -7372,7 +7379,7 @@
           <t>CO2 TANK</t>
         </is>
       </c>
-      <c r="F331" s="5" t="n"/>
+      <c r="F331" s="6" t="n"/>
       <c r="T331" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
@@ -7391,7 +7398,7 @@
           <t>AIR POT</t>
         </is>
       </c>
-      <c r="F332" s="5" t="n"/>
+      <c r="F332" s="6" t="n"/>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -7405,7 +7412,7 @@
           <t>AIR POT STAND</t>
         </is>
       </c>
-      <c r="F333" s="5" t="n"/>
+      <c r="F333" s="6" t="n"/>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -7421,7 +7428,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F334" s="5" t="n"/>
+      <c r="F334" s="6" t="n"/>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -7435,7 +7442,7 @@
           <t>WATER FILTRATION SYSTEM</t>
         </is>
       </c>
-      <c r="F335" s="5" t="n"/>
+      <c r="F335" s="6" t="n"/>
       <c r="G335" t="n">
         <v>20</v>
       </c>
@@ -7457,13 +7464,13 @@
           <t>COFFEE GRINDER</t>
         </is>
       </c>
-      <c r="D336" t="n">
+      <c r="D336" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E336" t="n">
         <v>1</v>
       </c>
-      <c r="F336" s="5" t="n">
+      <c r="F336" s="6" t="n">
         <v>5.1</v>
       </c>
     </row>
@@ -7479,13 +7486,13 @@
           <t>COFFEE AND ICE TEA BREWER</t>
         </is>
       </c>
-      <c r="D337" t="n">
+      <c r="D337" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E337" t="n">
         <v>1</v>
       </c>
-      <c r="F337" s="5" t="n">
+      <c r="F337" s="6" t="n">
         <v>45.5</v>
       </c>
       <c r="G337" t="n">
@@ -7506,7 +7513,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F338" s="5" t="n"/>
+      <c r="F338" s="6" t="n"/>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -7522,7 +7529,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F339" s="5" t="n"/>
+      <c r="F339" s="6" t="n"/>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -7536,13 +7543,13 @@
           <t>HOT WATER DISPENSER</t>
         </is>
       </c>
-      <c r="D340" t="n">
+      <c r="D340" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E340" t="n">
         <v>1</v>
       </c>
-      <c r="F340" s="5" t="n">
+      <c r="F340" s="6" t="n">
         <v>18.4</v>
       </c>
       <c r="G340" t="n">
@@ -7561,13 +7568,13 @@
           <t>DOUBLE SAKI WARMER</t>
         </is>
       </c>
-      <c r="D341" t="n">
+      <c r="D341" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E341" t="n">
         <v>1</v>
       </c>
-      <c r="F341" s="5" t="n">
+      <c r="F341" s="6" t="n">
         <v>15</v>
       </c>
     </row>
@@ -7583,13 +7590,13 @@
           <t>UNDER COUNTER FREEZER</t>
         </is>
       </c>
-      <c r="D342" t="n">
+      <c r="D342" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E342" t="n">
         <v>1</v>
       </c>
-      <c r="F342" s="5" t="n">
+      <c r="F342" s="6" t="n">
         <v>1.6</v>
       </c>
       <c r="T342" t="inlineStr">
@@ -7610,13 +7617,13 @@
           <t>COFFEE GRINDER</t>
         </is>
       </c>
-      <c r="D343" t="n">
+      <c r="D343" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E343" t="n">
         <v>1</v>
       </c>
-      <c r="F343" s="5" t="n">
+      <c r="F343" s="6" t="n">
         <v>3.5</v>
       </c>
     </row>
@@ -7634,7 +7641,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F344" s="5" t="n"/>
+      <c r="F344" s="6" t="n"/>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -7648,7 +7655,7 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F345" s="5" t="n"/>
+      <c r="F345" s="6" t="n"/>
       <c r="T345" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #404</t>
@@ -7667,7 +7674,7 @@
           <t>STAINLESS STEEL TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F346" s="5" t="n"/>
+      <c r="F346" s="6" t="n"/>
       <c r="T346" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -7686,13 +7693,13 @@
           <t>ESPRESSO MACHINE</t>
         </is>
       </c>
-      <c r="D347" t="n">
+      <c r="D347" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E347" t="n">
         <v>1</v>
       </c>
-      <c r="F347" s="5" t="n">
+      <c r="F347" s="6" t="n">
         <v>26</v>
       </c>
       <c r="G347" t="n">
@@ -7721,7 +7728,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F348" s="5" t="n"/>
+      <c r="F348" s="6" t="n"/>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -7737,7 +7744,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F349" s="5" t="n"/>
+      <c r="F349" s="6" t="n"/>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -7753,7 +7760,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F350" s="5" t="n"/>
+      <c r="F350" s="6" t="n"/>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -7767,7 +7774,7 @@
           <t>GLASS FILLER</t>
         </is>
       </c>
-      <c r="F351" s="5" t="n"/>
+      <c r="F351" s="6" t="n"/>
       <c r="G351" t="n">
         <v>15</v>
       </c>
@@ -7792,7 +7799,7 @@
           <t>GLASS RINSER</t>
         </is>
       </c>
-      <c r="F352" s="5" t="n"/>
+      <c r="F352" s="6" t="n"/>
       <c r="G352" t="n">
         <v>15</v>
       </c>
@@ -7812,7 +7819,7 @@
           <t>DRY STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F353" s="5" t="n"/>
+      <c r="F353" s="6" t="n"/>
       <c r="T353" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
@@ -7833,7 +7840,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F354" s="5" t="n"/>
+      <c r="F354" s="6" t="n"/>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -7847,13 +7854,13 @@
           <t>RED WINE REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D355" t="n">
+      <c r="D355" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E355" t="n">
         <v>1</v>
       </c>
-      <c r="F355" s="5" t="n">
+      <c r="F355" s="6" t="n">
         <v>1.6</v>
       </c>
       <c r="T355" t="inlineStr">
@@ -7874,13 +7881,13 @@
           <t>WHITE WINE REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D356" t="n">
+      <c r="D356" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E356" t="n">
         <v>1</v>
       </c>
-      <c r="F356" s="5" t="n">
+      <c r="F356" s="6" t="n">
         <v>1.6</v>
       </c>
     </row>
@@ -7896,13 +7903,13 @@
           <t>REACH-IN REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D357" t="n">
+      <c r="D357" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E357" t="n">
         <v>1</v>
       </c>
-      <c r="F357" s="5" t="n">
+      <c r="F357" s="6" t="n">
         <v>2.5</v>
       </c>
       <c r="T357" t="inlineStr">
@@ -7925,7 +7932,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F358" s="5" t="n"/>
+      <c r="F358" s="6" t="n"/>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -7941,7 +7948,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F359" s="5" t="n"/>
+      <c r="F359" s="6" t="n"/>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -7955,7 +7962,7 @@
           <t>DRINK SERVICE COUNTER</t>
         </is>
       </c>
-      <c r="F360" s="5" t="n"/>
+      <c r="F360" s="6" t="n"/>
       <c r="T360" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH GLASS RACK</t>
@@ -7974,13 +7981,13 @@
           <t>REFRIGERATED COCKTAIL STATION</t>
         </is>
       </c>
-      <c r="D361" t="n">
+      <c r="D361" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E361" t="n">
         <v>1</v>
       </c>
-      <c r="F361" s="5" t="n">
+      <c r="F361" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J361" t="n">
@@ -8010,13 +8017,13 @@
           <t>REFRIGERATED CONDIMENT RAIL</t>
         </is>
       </c>
-      <c r="D362" t="n">
+      <c r="D362" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E362" t="n">
         <v>1</v>
       </c>
-      <c r="F362" s="5" t="n">
+      <c r="F362" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J362" t="n">
@@ -8046,7 +8053,7 @@
           <t>DOUBLE BOTTLE RAIL</t>
         </is>
       </c>
-      <c r="F363" s="5" t="n"/>
+      <c r="F363" s="6" t="n"/>
       <c r="T363" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #442</t>
@@ -8067,7 +8074,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F364" s="5" t="n"/>
+      <c r="F364" s="6" t="n"/>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -8081,7 +8088,7 @@
           <t>CO2 TANK</t>
         </is>
       </c>
-      <c r="F365" s="5" t="n"/>
+      <c r="F365" s="6" t="n"/>
       <c r="T365" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
@@ -8100,7 +8107,7 @@
           <t>CO2 GLASS FROSTER</t>
         </is>
       </c>
-      <c r="F366" s="5" t="n"/>
+      <c r="F366" s="6" t="n"/>
       <c r="T366" t="inlineStr">
         <is>
           <t>MOUNTED TO ITEM #802</t>
@@ -8119,13 +8126,13 @@
           <t>DROP-IN FREEZER CABINET</t>
         </is>
       </c>
-      <c r="D367" t="n">
+      <c r="D367" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E367" t="n">
         <v>1</v>
       </c>
-      <c r="F367" s="5" t="n">
+      <c r="F367" s="6" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -8143,7 +8150,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F368" s="5" t="n"/>
+      <c r="F368" s="6" t="n"/>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -8159,7 +8166,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F369" s="5" t="n"/>
+      <c r="F369" s="6" t="n"/>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -8173,7 +8180,7 @@
           <t>DIPPERWELL</t>
         </is>
       </c>
-      <c r="F370" s="5" t="n"/>
+      <c r="F370" s="6" t="n"/>
       <c r="H370" t="n">
         <v>15</v>
       </c>
@@ -8201,7 +8208,7 @@
           <t>PASS-THRU WINDOW AND SHELF</t>
         </is>
       </c>
-      <c r="F371" s="5" t="n"/>
+      <c r="F371" s="6" t="n"/>
       <c r="T371" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -8220,13 +8227,13 @@
           <t>POS SYSTEM</t>
         </is>
       </c>
-      <c r="D372" t="n">
+      <c r="D372" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E372" t="n">
         <v>1</v>
       </c>
-      <c r="F372" s="5" t="n">
+      <c r="F372" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T372" t="inlineStr">
@@ -8247,13 +8254,13 @@
           <t>P.O.S. PRINTER</t>
         </is>
       </c>
-      <c r="D373" t="n">
+      <c r="D373" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E373" t="n">
         <v>1</v>
       </c>
-      <c r="F373" s="5" t="n">
+      <c r="F373" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T373" t="inlineStr">
@@ -8276,7 +8283,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F374" s="5" t="n"/>
+      <c r="F374" s="6" t="n"/>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -8290,13 +8297,13 @@
           <t>HOOD CONTROL CABINET</t>
         </is>
       </c>
-      <c r="D375" t="n">
+      <c r="D375" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E375" t="n">
         <v>1</v>
       </c>
-      <c r="F375" s="5" t="n">
+      <c r="F375" s="6" t="n">
         <v>1</v>
       </c>
       <c r="T375" t="inlineStr">
@@ -8319,7 +8326,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F376" s="5" t="n"/>
+      <c r="F376" s="6" t="n"/>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -8335,7 +8342,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F377" s="5" t="n"/>
+      <c r="F377" s="6" t="n"/>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -8351,7 +8358,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F378" s="5" t="n"/>
+      <c r="F378" s="6" t="n"/>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -8367,7 +8374,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F379" s="5" t="n"/>
+      <c r="F379" s="6" t="n"/>
     </row>
     <row r="380">
       <c r="A380" s="3" t="inlineStr">
@@ -8407,13 +8414,13 @@
           <t>FIRE SUPPRESSION SYSTEM</t>
         </is>
       </c>
-      <c r="D381" t="n">
+      <c r="D381" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E381" t="n">
         <v>1</v>
       </c>
-      <c r="F381" s="5" t="n">
+      <c r="F381" s="6" t="n">
         <v>10</v>
       </c>
       <c r="G381" t="n">
@@ -8437,7 +8444,7 @@
           <t>SMT RECESSED REMOTE STATION</t>
         </is>
       </c>
-      <c r="F382" s="5" t="n"/>
+      <c r="F382" s="6" t="n"/>
       <c r="G382" t="n">
         <v>10</v>
       </c>
@@ -8459,13 +8466,13 @@
           <t>EXHAUST HOOD</t>
         </is>
       </c>
-      <c r="D383" t="n">
+      <c r="D383" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E383" t="n">
         <v>1</v>
       </c>
-      <c r="F383" s="5" t="n">
+      <c r="F383" s="6" t="n">
         <v>10</v>
       </c>
       <c r="M383" t="n">
@@ -8498,7 +8505,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F384" s="5" t="n"/>
+      <c r="F384" s="6" t="n"/>
       <c r="G384" t="n">
         <v>15</v>
       </c>
@@ -8529,13 +8536,13 @@
           <t>CENTRAL SANITATION SYSTEM</t>
         </is>
       </c>
-      <c r="D385" t="n">
+      <c r="D385" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E385" t="n">
         <v>1</v>
       </c>
-      <c r="F385" s="5" t="n">
+      <c r="F385" s="6" t="n">
         <v>30</v>
       </c>
       <c r="H385" t="n">
@@ -8562,7 +8569,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F386" s="5" t="n"/>
+      <c r="F386" s="6" t="n"/>
       <c r="T386" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -8581,7 +8588,7 @@
           <t>UV INSPECTION CABINET</t>
         </is>
       </c>
-      <c r="F387" s="5" t="n"/>
+      <c r="F387" s="6" t="n"/>
       <c r="T387" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
@@ -8600,7 +8607,7 @@
           <t>FOUR BURNER RANGE</t>
         </is>
       </c>
-      <c r="F388" s="5" t="n"/>
+      <c r="F388" s="6" t="n"/>
       <c r="L388" t="n">
         <v>44</v>
       </c>
@@ -8622,7 +8629,7 @@
           <t>FILL FAUCET</t>
         </is>
       </c>
-      <c r="F389" s="5" t="n"/>
+      <c r="F389" s="6" t="n"/>
       <c r="G389" t="n">
         <v>15</v>
       </c>
@@ -8645,7 +8652,7 @@
           <t>SALAMANDER</t>
         </is>
       </c>
-      <c r="F390" s="5" t="n"/>
+      <c r="F390" s="6" t="n"/>
       <c r="L390" t="n">
         <v>10.3</v>
       </c>
@@ -8662,13 +8669,13 @@
           <t>WORK TABLE</t>
         </is>
       </c>
-      <c r="D391" t="n">
+      <c r="D391" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E391" t="n">
         <v>1</v>
       </c>
-      <c r="F391" s="5" t="n">
+      <c r="F391" s="6" t="n">
         <v>20</v>
       </c>
       <c r="T391" t="inlineStr">
@@ -8689,7 +8696,7 @@
           <t>INGREDIENT BIN</t>
         </is>
       </c>
-      <c r="F392" s="5" t="n"/>
+      <c r="F392" s="6" t="n"/>
       <c r="T392" t="inlineStr">
         <is>
           <t>MOBILE WITH LID</t>
@@ -8708,7 +8715,7 @@
           <t>DOUBLE TUBULAR WALL SHELF</t>
         </is>
       </c>
-      <c r="F393" s="5" t="n"/>
+      <c r="F393" s="6" t="n"/>
       <c r="T393" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -8727,7 +8734,7 @@
           <t>RICE COOKER</t>
         </is>
       </c>
-      <c r="F394" s="5" t="n"/>
+      <c r="F394" s="6" t="n"/>
       <c r="L394" t="n">
         <v>10.3</v>
       </c>
@@ -8744,7 +8751,7 @@
           <t>PORTABLE HOSE REEL</t>
         </is>
       </c>
-      <c r="F395" s="5" t="n"/>
+      <c r="F395" s="6" t="n"/>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -8758,7 +8765,7 @@
           <t>RICE COOKER STAND</t>
         </is>
       </c>
-      <c r="F396" s="5" t="n"/>
+      <c r="F396" s="6" t="n"/>
       <c r="T396" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
@@ -8777,13 +8784,13 @@
           <t>PREPARATION TABLE WITH SINKS</t>
         </is>
       </c>
-      <c r="D397" t="n">
+      <c r="D397" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E397" t="n">
         <v>1</v>
       </c>
-      <c r="F397" s="5" t="n">
+      <c r="F397" s="6" t="n">
         <v>10</v>
       </c>
       <c r="G397" t="n">
@@ -8816,7 +8823,7 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F398" s="5" t="n"/>
+      <c r="F398" s="6" t="n"/>
       <c r="T398" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -8837,7 +8844,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F399" s="5" t="n"/>
+      <c r="F399" s="6" t="n"/>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -8853,7 +8860,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F400" s="5" t="n"/>
+      <c r="F400" s="6" t="n"/>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -8867,7 +8874,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F401" s="5" t="n"/>
+      <c r="F401" s="6" t="n"/>
       <c r="T401" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
@@ -8886,7 +8893,7 @@
           <t>VEGETABLE DRYER</t>
         </is>
       </c>
-      <c r="F402" s="5" t="n"/>
+      <c r="F402" s="6" t="n"/>
       <c r="T402" t="inlineStr">
         <is>
           <t>MOBILE</t>
@@ -8905,13 +8912,13 @@
           <t>BLENDER</t>
         </is>
       </c>
-      <c r="D403" t="n">
+      <c r="D403" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E403" t="n">
         <v>1</v>
       </c>
-      <c r="F403" s="5" t="n">
+      <c r="F403" s="6" t="n">
         <v>6</v>
       </c>
       <c r="T403" t="inlineStr">
@@ -8932,13 +8939,13 @@
           <t>FOOD PROCESSOR</t>
         </is>
       </c>
-      <c r="D404" t="n">
+      <c r="D404" s="5" t="n">
         <v>120</v>
       </c>
       <c r="E404" t="n">
         <v>1</v>
       </c>
-      <c r="F404" s="5" t="n">
+      <c r="F404" s="6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -8956,7 +8963,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F405" s="5" t="n"/>
+      <c r="F405" s="6" t="n"/>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -8970,13 +8977,13 @@
           <t>VEGETABLE JUICER</t>
         </is>
       </c>
-      <c r="D406" t="n">
+      <c r="D406" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E406" t="n">
         <v>1</v>
       </c>
-      <c r="F406" s="5" t="n">
+      <c r="F406" s="6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -8992,13 +8999,13 @@
           <t>CITRUS JUICER</t>
         </is>
       </c>
-      <c r="D407" t="n">
+      <c r="D407" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E407" t="n">
         <v>1</v>
       </c>
-      <c r="F407" s="5" t="n">
+      <c r="F407" s="6" t="n">
         <v>2.2</v>
       </c>
     </row>
@@ -9014,13 +9021,13 @@
           <t>IMMERSION CIRCULATOR</t>
         </is>
       </c>
-      <c r="D408" t="n">
+      <c r="D408" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E408" t="n">
         <v>1</v>
       </c>
-      <c r="F408" s="5" t="n">
+      <c r="F408" s="6" t="n">
         <v>4.8</v>
       </c>
     </row>
@@ -9038,7 +9045,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F409" s="5" t="n"/>
+      <c r="F409" s="6" t="n"/>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -9054,7 +9061,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F410" s="5" t="n"/>
+      <c r="F410" s="6" t="n"/>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -9068,7 +9075,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F411" s="5" t="n"/>
+      <c r="F411" s="6" t="n"/>
       <c r="G411" t="n">
         <v>15</v>
       </c>
@@ -9099,7 +9106,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F412" s="5" t="n"/>
+      <c r="F412" s="6" t="n"/>
       <c r="T412" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -9118,7 +9125,7 @@
           <t>UV INSPECTION CABINET</t>
         </is>
       </c>
-      <c r="F413" s="5" t="n"/>
+      <c r="F413" s="6" t="n"/>
       <c r="T413" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
@@ -9137,13 +9144,13 @@
           <t>PASTRY PREPARATION COUNTER WITH MIXER RECESS</t>
         </is>
       </c>
-      <c r="D414" t="n">
+      <c r="D414" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E414" t="n">
         <v>1</v>
       </c>
-      <c r="F414" s="5" t="n">
+      <c r="F414" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T414" t="inlineStr">
@@ -9166,7 +9173,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F415" s="5" t="n"/>
+      <c r="F415" s="6" t="n"/>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -9180,7 +9187,7 @@
           <t>RECESSED MARBLE TOP</t>
         </is>
       </c>
-      <c r="F416" s="5" t="n"/>
+      <c r="F416" s="6" t="n"/>
       <c r="T416" t="inlineStr">
         <is>
           <t>PART OF ITEM #494</t>
@@ -9199,7 +9206,7 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F417" s="5" t="n"/>
+      <c r="F417" s="6" t="n"/>
       <c r="T417" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH INGREDIENT BINS</t>
@@ -9218,13 +9225,13 @@
           <t>INDUCTION WARMER</t>
         </is>
       </c>
-      <c r="D418" t="n">
+      <c r="D418" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E418" t="n">
         <v>1</v>
       </c>
-      <c r="F418" s="5" t="n">
+      <c r="F418" s="6" t="n">
         <v>22</v>
       </c>
       <c r="T418" t="inlineStr">
@@ -9247,7 +9254,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F419" s="5" t="n"/>
+      <c r="F419" s="6" t="n"/>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -9263,7 +9270,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F420" s="5" t="n"/>
+      <c r="F420" s="6" t="n"/>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -9277,13 +9284,13 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D421" t="n">
+      <c r="D421" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E421" t="n">
         <v>1</v>
       </c>
-      <c r="F421" s="5" t="n">
+      <c r="F421" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R421" t="n">
@@ -9310,13 +9317,13 @@
           <t>20 QT. MIXER</t>
         </is>
       </c>
-      <c r="D422" t="n">
+      <c r="D422" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E422" t="n">
         <v>1</v>
       </c>
-      <c r="F422" s="5" t="n">
+      <c r="F422" s="6" t="n">
         <v>1.6</v>
       </c>
     </row>
@@ -9332,7 +9339,7 @@
           <t>MIXER UTENSIL RACK</t>
         </is>
       </c>
-      <c r="F423" s="5" t="n"/>
+      <c r="F423" s="6" t="n"/>
       <c r="T423" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -9351,13 +9358,13 @@
           <t>COMBI OVEN WITH BLAST CHILLER</t>
         </is>
       </c>
-      <c r="D424" t="n">
+      <c r="D424" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E424" t="n">
         <v>1</v>
       </c>
-      <c r="F424" s="5" t="n">
+      <c r="F424" s="6" t="n">
         <v>13.9</v>
       </c>
       <c r="G424" t="n">
@@ -9389,7 +9396,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F425" s="5" t="n"/>
+      <c r="F425" s="6" t="n"/>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -9403,13 +9410,13 @@
           <t>EXHAUST HOOD</t>
         </is>
       </c>
-      <c r="D426" t="n">
+      <c r="D426" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E426" t="n">
         <v>1</v>
       </c>
-      <c r="F426" s="5" t="n">
+      <c r="F426" s="6" t="n">
         <v>10</v>
       </c>
       <c r="M426" t="n">
@@ -9444,7 +9451,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F427" s="5" t="n"/>
+      <c r="F427" s="6" t="n"/>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -9460,7 +9467,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F428" s="5" t="n"/>
+      <c r="F428" s="6" t="n"/>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -9476,7 +9483,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F429" s="5" t="n"/>
+      <c r="F429" s="6" t="n"/>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -9494,7 +9501,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F430" s="5" t="n"/>
+      <c r="F430" s="6" t="n"/>
     </row>
     <row r="431">
       <c r="A431" s="3" t="inlineStr">
@@ -9534,13 +9541,13 @@
           <t>EXHAUST HOOD</t>
         </is>
       </c>
-      <c r="D432" t="n">
+      <c r="D432" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E432" t="n">
         <v>1</v>
       </c>
-      <c r="F432" s="5" t="n">
+      <c r="F432" s="6" t="n">
         <v>10</v>
       </c>
       <c r="M432" t="n">
@@ -9573,13 +9580,13 @@
           <t>AUTO GYOZA COOKER</t>
         </is>
       </c>
-      <c r="D433" t="n">
+      <c r="D433" s="5" t="n">
         <v>400</v>
       </c>
       <c r="E433" t="n">
         <v>3</v>
       </c>
-      <c r="F433" s="5" t="n">
+      <c r="F433" s="6" t="n">
         <v>15</v>
       </c>
     </row>
@@ -9595,13 +9602,13 @@
           <t>FREEZER EQUIPMENT STAND</t>
         </is>
       </c>
-      <c r="D434" t="n">
+      <c r="D434" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E434" t="n">
         <v>1</v>
       </c>
-      <c r="F434" s="5" t="n">
+      <c r="F434" s="6" t="n">
         <v>2.5</v>
       </c>
       <c r="T434" t="inlineStr">
@@ -9622,7 +9629,7 @@
           <t>SPREADER</t>
         </is>
       </c>
-      <c r="F435" s="5" t="n"/>
+      <c r="F435" s="6" t="n"/>
       <c r="T435" t="inlineStr">
         <is>
           <t>MOBILE</t>
@@ -9641,7 +9648,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F436" s="5" t="n"/>
+      <c r="F436" s="6" t="n"/>
       <c r="K436" t="n">
         <v>50</v>
       </c>
@@ -9658,13 +9665,13 @@
           <t>TEMPURA FRYER</t>
         </is>
       </c>
-      <c r="D437" t="n">
+      <c r="D437" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E437" t="n">
         <v>1</v>
       </c>
-      <c r="F437" s="5" t="n">
+      <c r="F437" s="6" t="n">
         <v>4.7</v>
       </c>
       <c r="L437" t="n">
@@ -9688,7 +9695,7 @@
           <t>PASTA COOKER</t>
         </is>
       </c>
-      <c r="F438" s="5" t="n"/>
+      <c r="F438" s="6" t="n"/>
       <c r="G438" t="n">
         <v>15</v>
       </c>
@@ -9716,7 +9723,7 @@
           <t>FOUR BURNER RANGE</t>
         </is>
       </c>
-      <c r="F439" s="5" t="n"/>
+      <c r="F439" s="6" t="n"/>
       <c r="L439" t="n">
         <v>49.8</v>
       </c>
@@ -9738,7 +9745,7 @@
           <t>FILL FAUCET</t>
         </is>
       </c>
-      <c r="F440" s="5" t="n"/>
+      <c r="F440" s="6" t="n"/>
       <c r="G440" t="n">
         <v>15</v>
       </c>
@@ -9761,7 +9768,7 @@
           <t>SALAMANDER</t>
         </is>
       </c>
-      <c r="F441" s="5" t="n"/>
+      <c r="F441" s="6" t="n"/>
       <c r="L441" t="n">
         <v>10.3</v>
       </c>
@@ -9778,7 +9785,7 @@
           <t>TUBULAR WALL SHELF</t>
         </is>
       </c>
-      <c r="F442" s="5" t="n"/>
+      <c r="F442" s="6" t="n"/>
       <c r="T442" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -9797,13 +9804,13 @@
           <t>SIX BURNER RANGE</t>
         </is>
       </c>
-      <c r="D443" t="n">
+      <c r="D443" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E443" t="n">
         <v>1</v>
       </c>
-      <c r="F443" s="5" t="n">
+      <c r="F443" s="6" t="n">
         <v>3</v>
       </c>
       <c r="L443" t="n">
@@ -9827,7 +9834,7 @@
           <t>SALAMANDER</t>
         </is>
       </c>
-      <c r="F444" s="5" t="n"/>
+      <c r="F444" s="6" t="n"/>
       <c r="L444" t="n">
         <v>10.3</v>
       </c>
@@ -9851,7 +9858,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F445" s="5" t="n"/>
+      <c r="F445" s="6" t="n"/>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -9867,7 +9874,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F446" s="5" t="n"/>
+      <c r="F446" s="6" t="n"/>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -9881,13 +9888,13 @@
           <t>SOLID FUEL EXHAUST HOOD</t>
         </is>
       </c>
-      <c r="D447" t="n">
+      <c r="D447" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E447" t="n">
         <v>1</v>
       </c>
-      <c r="F447" s="5" t="n">
+      <c r="F447" s="6" t="n">
         <v>10</v>
       </c>
       <c r="M447" t="n">
@@ -9909,7 +9916,7 @@
       </c>
     </row>
     <row r="448">
-      <c r="F448" s="5" t="n"/>
+      <c r="F448" s="6" t="n"/>
       <c r="M448" t="n">
         <v>1641</v>
       </c>
@@ -9935,7 +9942,7 @@
           <t>FILL FAUCET</t>
         </is>
       </c>
-      <c r="F449" s="5" t="n"/>
+      <c r="F449" s="6" t="n"/>
       <c r="G449" t="n">
         <v>15</v>
       </c>
@@ -9958,7 +9965,7 @@
           <t>CHARCOAL GRILL AND OVEN</t>
         </is>
       </c>
-      <c r="F450" s="5" t="n"/>
+      <c r="F450" s="6" t="n"/>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -9974,7 +9981,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F451" s="5" t="n"/>
+      <c r="F451" s="6" t="n"/>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -9990,7 +9997,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F452" s="5" t="n"/>
+      <c r="F452" s="6" t="n"/>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -10004,13 +10011,13 @@
           <t>INDUCTION WARMER</t>
         </is>
       </c>
-      <c r="D453" t="n">
+      <c r="D453" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E453" t="n">
         <v>1</v>
       </c>
-      <c r="F453" s="5" t="n">
+      <c r="F453" s="6" t="n">
         <v>22</v>
       </c>
       <c r="T453" t="inlineStr">
@@ -10031,13 +10038,13 @@
           <t>INDUCTION WARMER</t>
         </is>
       </c>
-      <c r="D454" t="n">
+      <c r="D454" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E454" t="n">
         <v>1</v>
       </c>
-      <c r="F454" s="5" t="n">
+      <c r="F454" s="6" t="n">
         <v>15</v>
       </c>
       <c r="T454" t="inlineStr">
@@ -10058,7 +10065,7 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F455" s="5" t="n"/>
+      <c r="F455" s="6" t="n"/>
       <c r="T455" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -10077,7 +10084,7 @@
           <t>PASTRY PREPARATION COUNTER</t>
         </is>
       </c>
-      <c r="F456" s="5" t="n"/>
+      <c r="F456" s="6" t="n"/>
       <c r="T456" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -10098,7 +10105,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F457" s="5" t="n"/>
+      <c r="F457" s="6" t="n"/>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -10112,7 +10119,7 @@
           <t>INGREDIENT BIN</t>
         </is>
       </c>
-      <c r="F458" s="5" t="n"/>
+      <c r="F458" s="6" t="n"/>
       <c r="T458" t="inlineStr">
         <is>
           <t>MOBILE WITH LID</t>
@@ -10131,13 +10138,13 @@
           <t>8 QUART MIXER</t>
         </is>
       </c>
-      <c r="D459" t="n">
+      <c r="D459" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E459" t="n">
         <v>1</v>
       </c>
-      <c r="F459" s="5" t="n">
+      <c r="F459" s="6" t="n">
         <v>3.5</v>
       </c>
     </row>
@@ -10153,13 +10160,13 @@
           <t>SHAVED ICE MACHINE</t>
         </is>
       </c>
-      <c r="D460" t="n">
+      <c r="D460" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E460" t="n">
         <v>1</v>
       </c>
-      <c r="F460" s="5" t="n">
+      <c r="F460" s="6" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -10177,7 +10184,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F461" s="5" t="n"/>
+      <c r="F461" s="6" t="n"/>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -10193,7 +10200,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F462" s="5" t="n"/>
+      <c r="F462" s="6" t="n"/>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -10207,13 +10214,13 @@
           <t>DESERT FREEZER</t>
         </is>
       </c>
-      <c r="D463" t="n">
+      <c r="D463" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E463" t="n">
         <v>1</v>
       </c>
-      <c r="F463" s="5" t="n">
+      <c r="F463" s="6" t="n">
         <v>4.1</v>
       </c>
     </row>
@@ -10229,13 +10236,13 @@
           <t>UNDERCOUNTER FREEZER</t>
         </is>
       </c>
-      <c r="D464" t="n">
+      <c r="D464" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E464" t="n">
         <v>1</v>
       </c>
-      <c r="F464" s="5" t="n">
+      <c r="F464" s="6" t="n">
         <v>1.6</v>
       </c>
       <c r="R464" t="n">
@@ -10262,13 +10269,13 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D465" t="n">
+      <c r="D465" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E465" t="n">
         <v>1</v>
       </c>
-      <c r="F465" s="5" t="n">
+      <c r="F465" s="6" t="n">
         <v>1.6</v>
       </c>
       <c r="R465" t="n">
@@ -10295,13 +10302,13 @@
           <t>COUNTERTOP FRYER</t>
         </is>
       </c>
-      <c r="D466" t="n">
+      <c r="D466" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E466" t="n">
         <v>1</v>
       </c>
-      <c r="F466" s="5" t="n">
+      <c r="F466" s="6" t="n">
         <v>24</v>
       </c>
     </row>
@@ -10319,7 +10326,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F467" s="5" t="n"/>
+      <c r="F467" s="6" t="n"/>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -10333,13 +10340,13 @@
           <t>COUNTERTOP COMBI OVEN</t>
         </is>
       </c>
-      <c r="D468" t="n">
+      <c r="D468" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E468" t="n">
         <v>1</v>
       </c>
-      <c r="F468" s="5" t="n">
+      <c r="F468" s="6" t="n">
         <v>3.9</v>
       </c>
       <c r="G468" t="inlineStr">
@@ -10371,7 +10378,7 @@
           <t>EXHAUST HOOD</t>
         </is>
       </c>
-      <c r="F469" s="5" t="n"/>
+      <c r="F469" s="6" t="n"/>
       <c r="M469" t="n">
         <v>3232</v>
       </c>
@@ -10397,7 +10404,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F470" s="5" t="n"/>
+      <c r="F470" s="6" t="n"/>
       <c r="K470" t="n">
         <v>50</v>
       </c>
@@ -10416,7 +10423,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F471" s="5" t="n"/>
+      <c r="F471" s="6" t="n"/>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -10434,7 +10441,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F472" s="5" t="n"/>
+      <c r="F472" s="6" t="n"/>
     </row>
     <row r="473">
       <c r="A473" s="3" t="inlineStr">
@@ -10474,7 +10481,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F474" s="5" t="n"/>
+      <c r="F474" s="6" t="n"/>
       <c r="G474" t="n">
         <v>15</v>
       </c>
@@ -10505,7 +10512,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F475" s="5" t="n"/>
+      <c r="F475" s="6" t="n"/>
       <c r="T475" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -10524,7 +10531,7 @@
           <t>UV INSPECTION CABINET</t>
         </is>
       </c>
-      <c r="F476" s="5" t="n"/>
+      <c r="F476" s="6" t="n"/>
       <c r="T476" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
@@ -10543,13 +10550,13 @@
           <t>CHEF'S COUNTER WITH SINK</t>
         </is>
       </c>
-      <c r="D477" t="n">
+      <c r="D477" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E477" t="n">
         <v>1</v>
       </c>
-      <c r="F477" s="5" t="n">
+      <c r="F477" s="6" t="n">
         <v>20</v>
       </c>
       <c r="G477" t="n">
@@ -10584,7 +10591,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F478" s="5" t="n"/>
+      <c r="F478" s="6" t="n"/>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -10598,7 +10605,7 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F479" s="5" t="n"/>
+      <c r="F479" s="6" t="n"/>
       <c r="T479" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #584</t>
@@ -10617,7 +10624,7 @@
           <t>STAINLESS STEEL TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F480" s="5" t="n"/>
+      <c r="F480" s="6" t="n"/>
       <c r="T480" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -10636,7 +10643,7 @@
           <t>RECESSED CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F481" s="5" t="n"/>
+      <c r="F481" s="6" t="n"/>
       <c r="T481" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #584</t>
@@ -10657,7 +10664,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F482" s="5" t="n"/>
+      <c r="F482" s="6" t="n"/>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -10673,7 +10680,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F483" s="5" t="n"/>
+      <c r="F483" s="6" t="n"/>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -10687,7 +10694,7 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F484" s="5" t="n"/>
+      <c r="F484" s="6" t="n"/>
       <c r="T484" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -10706,13 +10713,13 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D485" t="n">
+      <c r="D485" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E485" t="n">
         <v>1</v>
       </c>
-      <c r="F485" s="5" t="n">
+      <c r="F485" s="6" t="n">
         <v>1.6</v>
       </c>
       <c r="R485" t="n">
@@ -10741,7 +10748,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F486" s="5" t="n"/>
+      <c r="F486" s="6" t="n"/>
       <c r="T486" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #584</t>
@@ -10760,13 +10767,13 @@
           <t>P.O.S. PRINTER</t>
         </is>
       </c>
-      <c r="D487" t="n">
+      <c r="D487" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E487" t="n">
         <v>1</v>
       </c>
-      <c r="F487" s="5" t="n">
+      <c r="F487" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T487" t="inlineStr">
@@ -10789,7 +10796,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F488" s="5" t="n"/>
+      <c r="F488" s="6" t="n"/>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -10803,13 +10810,13 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D489" t="n">
+      <c r="D489" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E489" t="n">
         <v>1</v>
       </c>
-      <c r="F489" s="5" t="n">
+      <c r="F489" s="6" t="n">
         <v>1.6</v>
       </c>
       <c r="R489" t="n">
@@ -10836,7 +10843,7 @@
           <t>CHECK STRIP</t>
         </is>
       </c>
-      <c r="F490" s="5" t="n"/>
+      <c r="F490" s="6" t="n"/>
       <c r="T490" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -10855,7 +10862,7 @@
           <t>PASS-THRU WINDOW AND SHELF</t>
         </is>
       </c>
-      <c r="F491" s="5" t="n"/>
+      <c r="F491" s="6" t="n"/>
       <c r="T491" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -10876,7 +10883,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F492" s="5" t="n"/>
+      <c r="F492" s="6" t="n"/>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -10890,13 +10897,13 @@
           <t>RETRACTABLE FOOD WARMER</t>
         </is>
       </c>
-      <c r="D493" t="n">
+      <c r="D493" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E493" t="n">
         <v>1</v>
       </c>
-      <c r="F493" s="5" t="n">
+      <c r="F493" s="6" t="n">
         <v>1.6</v>
       </c>
     </row>
@@ -10912,13 +10919,13 @@
           <t>UNDER SHELF TASK LIGHT</t>
         </is>
       </c>
-      <c r="D494" t="n">
+      <c r="D494" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E494" t="n">
         <v>1</v>
       </c>
-      <c r="F494" s="5" t="n">
+      <c r="F494" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -10934,13 +10941,13 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D495" t="n">
+      <c r="D495" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E495" t="n">
         <v>1</v>
       </c>
-      <c r="F495" s="5" t="n">
+      <c r="F495" s="6" t="n">
         <v>1.6</v>
       </c>
       <c r="R495" t="n">
@@ -10967,7 +10974,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F496" s="5" t="n"/>
+      <c r="F496" s="6" t="n"/>
       <c r="G496" t="n">
         <v>15</v>
       </c>
@@ -10998,7 +11005,7 @@
           <t>STAINLESS STEEL TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F497" s="5" t="n"/>
+      <c r="F497" s="6" t="n"/>
       <c r="T497" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -11019,7 +11026,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F498" s="5" t="n"/>
+      <c r="F498" s="6" t="n"/>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -11033,7 +11040,7 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F499" s="5" t="n"/>
+      <c r="F499" s="6" t="n"/>
       <c r="T499" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #584</t>
@@ -11052,13 +11059,13 @@
           <t>P.O.S. PRINTER</t>
         </is>
       </c>
-      <c r="D500" t="n">
+      <c r="D500" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E500" t="n">
         <v>1</v>
       </c>
-      <c r="F500" s="5" t="n">
+      <c r="F500" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T500" t="inlineStr">
@@ -11079,13 +11086,13 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D501" t="n">
+      <c r="D501" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E501" t="n">
         <v>1</v>
       </c>
-      <c r="F501" s="5" t="n">
+      <c r="F501" s="6" t="n">
         <v>1.6</v>
       </c>
       <c r="R501" t="n">
@@ -11114,7 +11121,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F502" s="5" t="n"/>
+      <c r="F502" s="6" t="n"/>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -11130,7 +11137,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F503" s="5" t="n"/>
+      <c r="F503" s="6" t="n"/>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -11144,7 +11151,7 @@
           <t>DIPPERWELL</t>
         </is>
       </c>
-      <c r="F504" s="5" t="n"/>
+      <c r="F504" s="6" t="n"/>
       <c r="H504" t="n">
         <v>15</v>
       </c>
@@ -11172,13 +11179,13 @@
           <t>DROP-IN FREEZER CABINET</t>
         </is>
       </c>
-      <c r="D505" t="n">
+      <c r="D505" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E505" t="n">
         <v>1</v>
       </c>
-      <c r="F505" s="5" t="n">
+      <c r="F505" s="6" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -11194,7 +11201,7 @@
           <t>RECESSED MARBLE TOP</t>
         </is>
       </c>
-      <c r="F506" s="5" t="n"/>
+      <c r="F506" s="6" t="n"/>
       <c r="T506" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #584</t>
@@ -11215,7 +11222,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F507" s="5" t="n"/>
+      <c r="F507" s="6" t="n"/>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -11233,7 +11240,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F508" s="5" t="n"/>
+      <c r="F508" s="6" t="n"/>
     </row>
     <row r="509">
       <c r="A509" s="3" t="inlineStr">
@@ -11273,13 +11280,13 @@
           <t>SUSHI BAR BACK COUNTER</t>
         </is>
       </c>
-      <c r="D510" t="n">
+      <c r="D510" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E510" t="n">
         <v>1</v>
       </c>
-      <c r="F510" s="5" t="n">
+      <c r="F510" s="6" t="n">
         <v>30</v>
       </c>
       <c r="T510" t="inlineStr">
@@ -11300,13 +11307,13 @@
           <t>RICE WARMER</t>
         </is>
       </c>
-      <c r="D511" t="n">
+      <c r="D511" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E511" t="n">
         <v>1</v>
       </c>
-      <c r="F511" s="5" t="n">
+      <c r="F511" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -11322,7 +11329,7 @@
           <t>DIPPERWELL</t>
         </is>
       </c>
-      <c r="F512" s="5" t="n"/>
+      <c r="F512" s="6" t="n"/>
       <c r="H512" t="n">
         <v>15</v>
       </c>
@@ -11350,7 +11357,7 @@
           <t>DROP-IN HAND SINK</t>
         </is>
       </c>
-      <c r="F513" s="5" t="n"/>
+      <c r="F513" s="6" t="n"/>
       <c r="G513" t="n">
         <v>15</v>
       </c>
@@ -11383,7 +11390,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F514" s="5" t="n"/>
+      <c r="F514" s="6" t="n"/>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -11397,7 +11404,7 @@
           <t>STAINLESS STEEL TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F515" s="5" t="n"/>
+      <c r="F515" s="6" t="n"/>
       <c r="T515" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -11416,13 +11423,13 @@
           <t>P.O.S. PRINTER</t>
         </is>
       </c>
-      <c r="D516" t="n">
+      <c r="D516" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E516" t="n">
         <v>1</v>
       </c>
-      <c r="F516" s="5" t="n">
+      <c r="F516" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T516" t="inlineStr">
@@ -11443,13 +11450,13 @@
           <t>SUSHI CASE</t>
         </is>
       </c>
-      <c r="D517" t="n">
+      <c r="D517" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E517" t="n">
         <v>1</v>
       </c>
-      <c r="F517" s="5" t="n">
+      <c r="F517" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J517" t="n">
@@ -11473,7 +11480,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F518" s="5" t="n"/>
+      <c r="F518" s="6" t="n"/>
       <c r="K518" t="n">
         <v>50</v>
       </c>
@@ -11492,7 +11499,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F519" s="5" t="n"/>
+      <c r="F519" s="6" t="n"/>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -11506,13 +11513,13 @@
           <t>TOWEL WARMER</t>
         </is>
       </c>
-      <c r="D520" t="n">
+      <c r="D520" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E520" t="n">
         <v>1</v>
       </c>
-      <c r="F520" s="5" t="n">
+      <c r="F520" s="6" t="n">
         <v>1.9</v>
       </c>
     </row>
@@ -11530,7 +11537,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F521" s="5" t="n"/>
+      <c r="F521" s="6" t="n"/>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -11544,13 +11551,13 @@
           <t>UNDERCOUNTER REFRIGERATOR WITH SLIDING GLASS DOORS AND PAN SLIDES</t>
         </is>
       </c>
-      <c r="D522" t="n">
+      <c r="D522" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E522" t="n">
         <v>1</v>
       </c>
-      <c r="F522" s="5" t="n">
+      <c r="F522" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J522" t="n">
@@ -11574,13 +11581,13 @@
           <t>OPEN INSULATED CABINET</t>
         </is>
       </c>
-      <c r="D523" t="n">
+      <c r="D523" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E523" t="n">
         <v>1</v>
       </c>
-      <c r="F523" s="5" t="n">
+      <c r="F523" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T523" t="inlineStr">
@@ -11603,7 +11610,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F524" s="5" t="n"/>
+      <c r="F524" s="6" t="n"/>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -11617,13 +11624,13 @@
           <t>TOASTER OVEN</t>
         </is>
       </c>
-      <c r="D525" t="n">
+      <c r="D525" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E525" t="n">
         <v>1</v>
       </c>
-      <c r="F525" s="5" t="n">
+      <c r="F525" s="6" t="n">
         <v>6.8</v>
       </c>
       <c r="T525" t="inlineStr">
@@ -11644,13 +11651,13 @@
           <t>UNDERCOUNTER REFRIGERATOR WITH SLIDING GLASS DOORS AND PAN SLIDES</t>
         </is>
       </c>
-      <c r="D526" t="n">
+      <c r="D526" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E526" t="n">
         <v>1</v>
       </c>
-      <c r="F526" s="5" t="n">
+      <c r="F526" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J526" t="n">
@@ -11674,13 +11681,13 @@
           <t>P.O.S. PRINTER</t>
         </is>
       </c>
-      <c r="D527" t="n">
+      <c r="D527" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E527" t="n">
         <v>1</v>
       </c>
-      <c r="F527" s="5" t="n">
+      <c r="F527" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T527" t="inlineStr">
@@ -11703,7 +11710,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F528" s="5" t="n"/>
+      <c r="F528" s="6" t="n"/>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -11717,7 +11724,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F529" s="5" t="n"/>
+      <c r="F529" s="6" t="n"/>
       <c r="K529" t="n">
         <v>50</v>
       </c>
@@ -11734,13 +11741,13 @@
           <t>UNDERCOUNTER REFRIGERATOR WITH SLIDING GLASS DOORS AND PAN SLIDES</t>
         </is>
       </c>
-      <c r="D530" t="n">
+      <c r="D530" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E530" t="n">
         <v>1</v>
       </c>
-      <c r="F530" s="5" t="n">
+      <c r="F530" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J530" t="n">
@@ -11766,7 +11773,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F531" s="5" t="n"/>
+      <c r="F531" s="6" t="n"/>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -11780,13 +11787,13 @@
           <t>SUSHI CASE</t>
         </is>
       </c>
-      <c r="D532" t="n">
+      <c r="D532" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E532" t="n">
         <v>1</v>
       </c>
-      <c r="F532" s="5" t="n">
+      <c r="F532" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J532" t="n">
@@ -11805,13 +11812,13 @@
           <t>OPEN INSULATED CABINET</t>
         </is>
       </c>
-      <c r="D533" t="n">
+      <c r="D533" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E533" t="n">
         <v>1</v>
       </c>
-      <c r="F533" s="5" t="n">
+      <c r="F533" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T533" t="inlineStr">
@@ -11834,7 +11841,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F534" s="5" t="n"/>
+      <c r="F534" s="6" t="n"/>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -11848,13 +11855,13 @@
           <t>TOASTER OVEN</t>
         </is>
       </c>
-      <c r="D535" t="n">
+      <c r="D535" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E535" t="n">
         <v>1</v>
       </c>
-      <c r="F535" s="5" t="n">
+      <c r="F535" s="6" t="n">
         <v>6.8</v>
       </c>
       <c r="T535" t="inlineStr">
@@ -11875,13 +11882,13 @@
           <t>UNDERCOUNTER REFRIGERATOR WITH SLIDING GLASS DOORS AND PAN SLIDES</t>
         </is>
       </c>
-      <c r="D536" t="n">
+      <c r="D536" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E536" t="n">
         <v>1</v>
       </c>
-      <c r="F536" s="5" t="n">
+      <c r="F536" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J536" t="n">
@@ -11905,7 +11912,7 @@
           <t>OPEN STORAGE CABINET</t>
         </is>
       </c>
-      <c r="F537" s="5" t="n"/>
+      <c r="F537" s="6" t="n"/>
       <c r="T537" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #701</t>
@@ -11926,7 +11933,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F538" s="5" t="n"/>
+      <c r="F538" s="6" t="n"/>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -11942,7 +11949,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F539" s="5" t="n"/>
+      <c r="F539" s="6" t="n"/>
     </row>
     <row r="540">
       <c r="A540" t="n">
@@ -11956,13 +11963,13 @@
           <t>P.O.S. PRINTER</t>
         </is>
       </c>
-      <c r="D540" t="n">
+      <c r="D540" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E540" t="n">
         <v>1</v>
       </c>
-      <c r="F540" s="5" t="n">
+      <c r="F540" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T540" t="inlineStr">
@@ -11983,7 +11990,7 @@
           <t>STAINLESS STEEL TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F541" s="5" t="n"/>
+      <c r="F541" s="6" t="n"/>
       <c r="T541" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -12002,7 +12009,7 @@
           <t>DROP-IN HAND SINK</t>
         </is>
       </c>
-      <c r="F542" s="5" t="n"/>
+      <c r="F542" s="6" t="n"/>
       <c r="G542" t="n">
         <v>15</v>
       </c>
@@ -12033,7 +12040,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F543" s="5" t="n"/>
+      <c r="F543" s="6" t="n"/>
       <c r="L543" t="n">
         <v>50</v>
       </c>
@@ -12054,7 +12061,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F544" s="5" t="n"/>
+      <c r="F544" s="6" t="n"/>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -12068,7 +12075,7 @@
           <t>SUSHI FRONT SERVING COUNTER</t>
         </is>
       </c>
-      <c r="F545" s="5" t="n"/>
+      <c r="F545" s="6" t="n"/>
       <c r="T545" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -12087,13 +12094,13 @@
           <t>OPEN STORAGE CABINET</t>
         </is>
       </c>
-      <c r="D546" t="n">
+      <c r="D546" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E546" t="n">
         <v>1</v>
       </c>
-      <c r="F546" s="5" t="n">
+      <c r="F546" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T546" t="inlineStr">
@@ -12114,13 +12121,13 @@
           <t>RICE WARMER</t>
         </is>
       </c>
-      <c r="D547" t="n">
+      <c r="D547" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E547" t="n">
         <v>1</v>
       </c>
-      <c r="F547" s="5" t="n">
+      <c r="F547" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -12136,7 +12143,7 @@
           <t>RICE WARMER STAND</t>
         </is>
       </c>
-      <c r="F548" s="5" t="n"/>
+      <c r="F548" s="6" t="n"/>
       <c r="T548" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
@@ -12157,7 +12164,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F549" s="5" t="n"/>
+      <c r="F549" s="6" t="n"/>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -12171,13 +12178,13 @@
           <t>NORI WARMER</t>
         </is>
       </c>
-      <c r="D550" t="n">
+      <c r="D550" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E550" t="n">
         <v>1</v>
       </c>
-      <c r="F550" s="5" t="n">
+      <c r="F550" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -12193,13 +12200,13 @@
           <t>UNDERCOUNTER REFRIGERATOR WITH SLIDING GLASS DOORS AND PAN SLIDES</t>
         </is>
       </c>
-      <c r="D551" t="n">
+      <c r="D551" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E551" t="n">
         <v>1</v>
       </c>
-      <c r="F551" s="5" t="n">
+      <c r="F551" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J551" t="n">
@@ -12223,13 +12230,13 @@
           <t>SUSHI CASE</t>
         </is>
       </c>
-      <c r="D552" t="n">
+      <c r="D552" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E552" t="n">
         <v>1</v>
       </c>
-      <c r="F552" s="5" t="n">
+      <c r="F552" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T552" t="inlineStr">
@@ -12252,7 +12259,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F553" s="5" t="n"/>
+      <c r="F553" s="6" t="n"/>
     </row>
     <row r="554">
       <c r="A554" t="n">
@@ -12268,7 +12275,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F554" s="5" t="n"/>
+      <c r="F554" s="6" t="n"/>
     </row>
     <row r="555">
       <c r="A555" t="n">
@@ -12282,7 +12289,7 @@
           <t>RECESSED CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F555" s="5" t="n"/>
+      <c r="F555" s="6" t="n"/>
       <c r="T555" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #751</t>
@@ -12301,7 +12308,7 @@
           <t>PREPARATION SINK</t>
         </is>
       </c>
-      <c r="F556" s="5" t="n"/>
+      <c r="F556" s="6" t="n"/>
       <c r="G556" t="n">
         <v>15</v>
       </c>
@@ -12332,13 +12339,13 @@
           <t>UNDERCOUNTER REFRIGERATOR WITH SLIDING GLASS DOORS AND PAN SLIDES</t>
         </is>
       </c>
-      <c r="D557" t="n">
+      <c r="D557" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E557" t="n">
         <v>1</v>
       </c>
-      <c r="F557" s="5" t="n">
+      <c r="F557" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J557" t="n">
@@ -12362,7 +12369,7 @@
           <t>RECESSED CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F558" s="5" t="n"/>
+      <c r="F558" s="6" t="n"/>
       <c r="T558" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #751</t>
@@ -12383,7 +12390,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F559" s="5" t="n"/>
+      <c r="F559" s="6" t="n"/>
     </row>
     <row r="560">
       <c r="A560" t="n">
@@ -12397,13 +12404,13 @@
           <t>OPEN STORAGE CABINET</t>
         </is>
       </c>
-      <c r="D560" t="n">
+      <c r="D560" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E560" t="n">
         <v>1</v>
       </c>
-      <c r="F560" s="5" t="n">
+      <c r="F560" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T560" t="inlineStr">
@@ -12424,13 +12431,13 @@
           <t>RICE WARMER</t>
         </is>
       </c>
-      <c r="D561" t="n">
+      <c r="D561" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E561" t="n">
         <v>1</v>
       </c>
-      <c r="F561" s="5" t="n">
+      <c r="F561" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -12446,7 +12453,7 @@
           <t>RICE WARMER STAND</t>
         </is>
       </c>
-      <c r="F562" s="5" t="n"/>
+      <c r="F562" s="6" t="n"/>
       <c r="T562" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
@@ -12467,7 +12474,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F563" s="5" t="n"/>
+      <c r="F563" s="6" t="n"/>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -12483,7 +12490,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F564" s="5" t="n"/>
+      <c r="F564" s="6" t="n"/>
     </row>
     <row r="565">
       <c r="A565" t="n">
@@ -12497,13 +12504,13 @@
           <t>NORI WARMER</t>
         </is>
       </c>
-      <c r="D565" t="n">
+      <c r="D565" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E565" t="n">
         <v>1</v>
       </c>
-      <c r="F565" s="5" t="n">
+      <c r="F565" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -12519,13 +12526,13 @@
           <t>UNDERCOUNTER REFRIGERATOR WITH SLIDING GLASS DOORS AND PAN SLIDES</t>
         </is>
       </c>
-      <c r="D566" t="n">
+      <c r="D566" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E566" t="n">
         <v>1</v>
       </c>
-      <c r="F566" s="5" t="n">
+      <c r="F566" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J566" t="n">
@@ -12549,7 +12556,7 @@
           <t>PREPARATION SINK</t>
         </is>
       </c>
-      <c r="F567" s="5" t="n"/>
+      <c r="F567" s="6" t="n"/>
       <c r="G567" t="n">
         <v>15</v>
       </c>
@@ -12580,13 +12587,13 @@
           <t>UNDERCOUNTER REFRIGERATOR WITH SLIDING GLASS DOORS AND PAN SLIDES</t>
         </is>
       </c>
-      <c r="D568" t="n">
+      <c r="D568" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E568" t="n">
         <v>1</v>
       </c>
-      <c r="F568" s="5" t="n">
+      <c r="F568" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J568" t="n">
@@ -12612,7 +12619,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F569" s="5" t="n"/>
+      <c r="F569" s="6" t="n"/>
     </row>
     <row r="570">
       <c r="A570" t="n">
@@ -12626,7 +12633,7 @@
           <t>RECESSED CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F570" s="5" t="n"/>
+      <c r="F570" s="6" t="n"/>
       <c r="T570" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #751</t>
@@ -12645,13 +12652,13 @@
           <t>OPEN STORAGE CABINET</t>
         </is>
       </c>
-      <c r="D571" t="n">
+      <c r="D571" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E571" t="n">
         <v>1</v>
       </c>
-      <c r="F571" s="5" t="n">
+      <c r="F571" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T571" t="inlineStr">
@@ -12672,13 +12679,13 @@
           <t>RICE WARMER</t>
         </is>
       </c>
-      <c r="D572" t="n">
+      <c r="D572" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E572" t="n">
         <v>1</v>
       </c>
-      <c r="F572" s="5" t="n">
+      <c r="F572" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -12696,7 +12703,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F573" s="5" t="n"/>
+      <c r="F573" s="6" t="n"/>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -12712,7 +12719,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F574" s="5" t="n"/>
+      <c r="F574" s="6" t="n"/>
     </row>
     <row r="575">
       <c r="A575" t="n">
@@ -12726,7 +12733,7 @@
           <t>RICE WARMER STAND</t>
         </is>
       </c>
-      <c r="F575" s="5" t="n"/>
+      <c r="F575" s="6" t="n"/>
       <c r="T575" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
@@ -12745,13 +12752,13 @@
           <t>NORI WARMER</t>
         </is>
       </c>
-      <c r="D576" t="n">
+      <c r="D576" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E576" t="n">
         <v>1</v>
       </c>
-      <c r="F576" s="5" t="n">
+      <c r="F576" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -12767,13 +12774,13 @@
           <t>UNDERCOUNTER REFRIGERATOR WITH SLIDING GLASS DOORS AND PAN SLIDES</t>
         </is>
       </c>
-      <c r="D577" t="n">
+      <c r="D577" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E577" t="n">
         <v>1</v>
       </c>
-      <c r="F577" s="5" t="n">
+      <c r="F577" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J577" t="n">
@@ -12797,7 +12804,7 @@
           <t>PREPARATION SINK</t>
         </is>
       </c>
-      <c r="F578" s="5" t="n"/>
+      <c r="F578" s="6" t="n"/>
       <c r="G578" t="n">
         <v>15</v>
       </c>
@@ -12830,7 +12837,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F579" s="5" t="n"/>
+      <c r="F579" s="6" t="n"/>
     </row>
     <row r="580">
       <c r="A580" t="n">
@@ -12844,7 +12851,7 @@
           <t>SUSHI BAR TOP AND DIE</t>
         </is>
       </c>
-      <c r="F580" s="5" t="n"/>
+      <c r="F580" s="6" t="n"/>
     </row>
     <row r="581">
       <c r="A581" t="n">
@@ -12860,7 +12867,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F581" s="5" t="n"/>
+      <c r="F581" s="6" t="n"/>
     </row>
     <row r="582">
       <c r="A582" t="n">
@@ -12876,7 +12883,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F582" s="5" t="n"/>
+      <c r="F582" s="6" t="n"/>
     </row>
     <row r="583">
       <c r="A583" t="n">
@@ -12892,7 +12899,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F583" s="5" t="n"/>
+      <c r="F583" s="6" t="n"/>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -12910,7 +12917,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F584" s="5" t="n"/>
+      <c r="F584" s="6" t="n"/>
     </row>
     <row r="585">
       <c r="A585" s="3" t="inlineStr">
@@ -12950,7 +12957,7 @@
           <t>BAR TOP AND DIE</t>
         </is>
       </c>
-      <c r="F586" s="5" t="n"/>
+      <c r="F586" s="6" t="n"/>
       <c r="T586" t="inlineStr">
         <is>
           <t>MILLWORK / BY INTERIOR DESIGNER WITH DRINK RAIL</t>
@@ -12969,7 +12976,7 @@
           <t>BAR WORK COUNTER</t>
         </is>
       </c>
-      <c r="F587" s="5" t="n"/>
+      <c r="F587" s="6" t="n"/>
       <c r="T587" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -12988,7 +12995,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F588" s="5" t="n"/>
+      <c r="F588" s="6" t="n"/>
       <c r="G588" t="n">
         <v>15</v>
       </c>
@@ -13019,13 +13026,13 @@
           <t>UNDERCOUNTER FREEZER</t>
         </is>
       </c>
-      <c r="D589" t="n">
+      <c r="D589" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E589" t="n">
         <v>1</v>
       </c>
-      <c r="F589" s="5" t="n">
+      <c r="F589" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J589" t="n">
@@ -13057,7 +13064,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F590" s="5" t="n"/>
+      <c r="F590" s="6" t="n"/>
     </row>
     <row r="591">
       <c r="A591" t="n">
@@ -13071,13 +13078,13 @@
           <t>P.O.S. PRINTER</t>
         </is>
       </c>
-      <c r="D591" t="n">
+      <c r="D591" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E591" t="n">
         <v>1</v>
       </c>
-      <c r="F591" s="5" t="n">
+      <c r="F591" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T591" t="inlineStr">
@@ -13098,13 +13105,13 @@
           <t>POS SYSTEM</t>
         </is>
       </c>
-      <c r="D592" t="n">
+      <c r="D592" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E592" t="n">
         <v>1</v>
       </c>
-      <c r="F592" s="5" t="n">
+      <c r="F592" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T592" t="inlineStr">
@@ -13125,7 +13132,7 @@
           <t>UTILITY SINK</t>
         </is>
       </c>
-      <c r="F593" s="5" t="n"/>
+      <c r="F593" s="6" t="n"/>
       <c r="G593" t="n">
         <v>15</v>
       </c>
@@ -13158,7 +13165,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F594" s="5" t="n"/>
+      <c r="F594" s="6" t="n"/>
     </row>
     <row r="595">
       <c r="A595" t="n">
@@ -13174,7 +13181,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F595" s="5" t="n"/>
+      <c r="F595" s="6" t="n"/>
     </row>
     <row r="596">
       <c r="A596" t="n">
@@ -13188,7 +13195,7 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F596" s="5" t="n"/>
+      <c r="F596" s="6" t="n"/>
       <c r="T596" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
@@ -13207,7 +13214,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F597" s="5" t="n"/>
+      <c r="F597" s="6" t="n"/>
       <c r="T597" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -13226,7 +13233,7 @@
           <t>BLENDER STATION</t>
         </is>
       </c>
-      <c r="F598" s="5" t="n"/>
+      <c r="F598" s="6" t="n"/>
       <c r="T598" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
@@ -13245,13 +13252,13 @@
           <t>BAR BLENDER</t>
         </is>
       </c>
-      <c r="D599" t="n">
+      <c r="D599" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E599" t="n">
         <v>1</v>
       </c>
-      <c r="F599" s="5" t="n">
+      <c r="F599" s="6" t="n">
         <v>3.5</v>
       </c>
       <c r="T599" t="inlineStr">
@@ -13274,7 +13281,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F600" s="5" t="n"/>
+      <c r="F600" s="6" t="n"/>
     </row>
     <row r="601">
       <c r="A601" t="n">
@@ -13288,7 +13295,7 @@
           <t>CO2 GLASS FROSTER</t>
         </is>
       </c>
-      <c r="F601" s="5" t="n"/>
+      <c r="F601" s="6" t="n"/>
       <c r="T601" t="inlineStr">
         <is>
           <t>MOUNTED TO ITEM #802</t>
@@ -13307,7 +13314,7 @@
           <t>CO2 TANK</t>
         </is>
       </c>
-      <c r="F602" s="5" t="n"/>
+      <c r="F602" s="6" t="n"/>
       <c r="T602" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
@@ -13326,13 +13333,13 @@
           <t>REFRIGERATED COCKTAIL STATION</t>
         </is>
       </c>
-      <c r="D603" t="n">
+      <c r="D603" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E603" t="n">
         <v>1</v>
       </c>
-      <c r="F603" s="5" t="n">
+      <c r="F603" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J603" t="n">
@@ -13364,7 +13371,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F604" s="5" t="n"/>
+      <c r="F604" s="6" t="n"/>
     </row>
     <row r="605">
       <c r="A605" t="n">
@@ -13380,7 +13387,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F605" s="5" t="n"/>
+      <c r="F605" s="6" t="n"/>
     </row>
     <row r="606">
       <c r="A606" t="n">
@@ -13394,13 +13401,13 @@
           <t>STAIR STEP REFRIGERATED CONDIMENT RAIL</t>
         </is>
       </c>
-      <c r="D606" t="n">
+      <c r="D606" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E606" t="n">
         <v>1</v>
       </c>
-      <c r="F606" s="5" t="n">
+      <c r="F606" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J606" t="n">
@@ -13430,7 +13437,7 @@
           <t>DOUBLE BOTTLE RAIL</t>
         </is>
       </c>
-      <c r="F607" s="5" t="n"/>
+      <c r="F607" s="6" t="n"/>
       <c r="T607" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
@@ -13449,13 +13456,13 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D608" t="n">
+      <c r="D608" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E608" t="n">
         <v>1</v>
       </c>
-      <c r="F608" s="5" t="n">
+      <c r="F608" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J608" t="n">
@@ -13485,7 +13492,7 @@
           <t>UTILITY SINK</t>
         </is>
       </c>
-      <c r="F609" s="5" t="n"/>
+      <c r="F609" s="6" t="n"/>
       <c r="G609" t="n">
         <v>15</v>
       </c>
@@ -13518,7 +13525,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F610" s="5" t="n"/>
+      <c r="F610" s="6" t="n"/>
     </row>
     <row r="611">
       <c r="A611" t="n">
@@ -13532,7 +13539,7 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F611" s="5" t="n"/>
+      <c r="F611" s="6" t="n"/>
       <c r="T611" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
@@ -13551,7 +13558,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F612" s="5" t="n"/>
+      <c r="F612" s="6" t="n"/>
       <c r="T612" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -13570,7 +13577,7 @@
           <t>BLENDER STATION</t>
         </is>
       </c>
-      <c r="F613" s="5" t="n"/>
+      <c r="F613" s="6" t="n"/>
       <c r="T613" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
@@ -13591,7 +13598,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F614" s="5" t="n"/>
+      <c r="F614" s="6" t="n"/>
     </row>
     <row r="615">
       <c r="A615" t="n">
@@ -13607,7 +13614,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F615" s="5" t="n"/>
+      <c r="F615" s="6" t="n"/>
     </row>
     <row r="616">
       <c r="A616" t="n">
@@ -13621,13 +13628,13 @@
           <t>BAR BLENDER</t>
         </is>
       </c>
-      <c r="D616" t="n">
+      <c r="D616" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E616" t="n">
         <v>1</v>
       </c>
-      <c r="F616" s="5" t="n">
+      <c r="F616" s="6" t="n">
         <v>3.5</v>
       </c>
       <c r="T616" t="inlineStr">
@@ -13648,7 +13655,7 @@
           <t>CO2 GLASS FROSTER</t>
         </is>
       </c>
-      <c r="F617" s="5" t="n"/>
+      <c r="F617" s="6" t="n"/>
       <c r="T617" t="inlineStr">
         <is>
           <t>MOUNTED TO ITEM #802</t>
@@ -13667,7 +13674,7 @@
           <t>CO2 TANK</t>
         </is>
       </c>
-      <c r="F618" s="5" t="n"/>
+      <c r="F618" s="6" t="n"/>
       <c r="T618" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
@@ -13686,13 +13693,13 @@
           <t>REFRIGERATED COCKTAIL STATION</t>
         </is>
       </c>
-      <c r="D619" t="n">
+      <c r="D619" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E619" t="n">
         <v>1</v>
       </c>
-      <c r="F619" s="5" t="n">
+      <c r="F619" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J619" t="n">
@@ -13724,7 +13731,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F620" s="5" t="n"/>
+      <c r="F620" s="6" t="n"/>
     </row>
     <row r="621">
       <c r="A621" t="n">
@@ -13738,13 +13745,13 @@
           <t>STAIR STEP REFRIGERATED CONDIMENT RAIL</t>
         </is>
       </c>
-      <c r="D621" t="n">
+      <c r="D621" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E621" t="n">
         <v>1</v>
       </c>
-      <c r="F621" s="5" t="n">
+      <c r="F621" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J621" t="n">
@@ -13774,7 +13781,7 @@
           <t>DOUBLE BOTTLE RAIL</t>
         </is>
       </c>
-      <c r="F622" s="5" t="n"/>
+      <c r="F622" s="6" t="n"/>
       <c r="T622" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
@@ -13793,13 +13800,13 @@
           <t>UNDERCOUNTER FREEZER WITH CARVING BOARD TOP</t>
         </is>
       </c>
-      <c r="D623" t="n">
+      <c r="D623" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E623" t="n">
         <v>1</v>
       </c>
-      <c r="F623" s="5" t="n">
+      <c r="F623" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J623" t="n">
@@ -13829,7 +13836,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F624" s="5" t="n"/>
+      <c r="F624" s="6" t="n"/>
       <c r="K624" t="n">
         <v>50</v>
       </c>
@@ -13848,7 +13855,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F625" s="5" t="n"/>
+      <c r="F625" s="6" t="n"/>
     </row>
     <row r="626">
       <c r="A626" t="n">
@@ -13862,13 +13869,13 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D626" t="n">
+      <c r="D626" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E626" t="n">
         <v>1</v>
       </c>
-      <c r="F626" s="5" t="n">
+      <c r="F626" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J626" t="n">
@@ -13898,13 +13905,13 @@
           <t>REFRIGERATED COCKTAIL STATION</t>
         </is>
       </c>
-      <c r="D627" t="n">
+      <c r="D627" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E627" t="n">
         <v>1</v>
       </c>
-      <c r="F627" s="5" t="n">
+      <c r="F627" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J627" t="n">
@@ -13934,13 +13941,13 @@
           <t>STAIR STEP REFRIGERATED CONDIMENT RAIL</t>
         </is>
       </c>
-      <c r="D628" t="n">
+      <c r="D628" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E628" t="n">
         <v>1</v>
       </c>
-      <c r="F628" s="5" t="n">
+      <c r="F628" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J628" t="n">
@@ -13970,7 +13977,7 @@
           <t>DOUBLE BOTTLE RAIL</t>
         </is>
       </c>
-      <c r="F629" s="5" t="n"/>
+      <c r="F629" s="6" t="n"/>
       <c r="T629" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
@@ -13991,7 +13998,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F630" s="5" t="n"/>
+      <c r="F630" s="6" t="n"/>
     </row>
     <row r="631">
       <c r="A631" t="n">
@@ -14005,7 +14012,7 @@
           <t>CO2 GLASS FROSTER</t>
         </is>
       </c>
-      <c r="F631" s="5" t="n"/>
+      <c r="F631" s="6" t="n"/>
       <c r="T631" t="inlineStr">
         <is>
           <t>MOUNTED TO ITEM #802</t>
@@ -14024,7 +14031,7 @@
           <t>CO2 TANK</t>
         </is>
       </c>
-      <c r="F632" s="5" t="n"/>
+      <c r="F632" s="6" t="n"/>
       <c r="T632" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
@@ -14043,7 +14050,7 @@
           <t>BLENDER STATION</t>
         </is>
       </c>
-      <c r="F633" s="5" t="n"/>
+      <c r="F633" s="6" t="n"/>
       <c r="T633" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
@@ -14064,7 +14071,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F634" s="5" t="n"/>
+      <c r="F634" s="6" t="n"/>
     </row>
     <row r="635">
       <c r="A635" t="n">
@@ -14080,7 +14087,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F635" s="5" t="n"/>
+      <c r="F635" s="6" t="n"/>
     </row>
     <row r="636">
       <c r="A636" t="n">
@@ -14094,13 +14101,13 @@
           <t>BAR BLENDER</t>
         </is>
       </c>
-      <c r="D636" t="n">
+      <c r="D636" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E636" t="n">
         <v>1</v>
       </c>
-      <c r="F636" s="5" t="n">
+      <c r="F636" s="6" t="n">
         <v>3.5</v>
       </c>
       <c r="T636" t="inlineStr">
@@ -14121,7 +14128,7 @@
           <t>UTILITY SINK</t>
         </is>
       </c>
-      <c r="F637" s="5" t="n"/>
+      <c r="F637" s="6" t="n"/>
       <c r="G637" t="n">
         <v>15</v>
       </c>
@@ -14152,7 +14159,7 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F638" s="5" t="n"/>
+      <c r="F638" s="6" t="n"/>
       <c r="T638" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
@@ -14171,7 +14178,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F639" s="5" t="n"/>
+      <c r="F639" s="6" t="n"/>
       <c r="T639" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -14192,7 +14199,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F640" s="5" t="n"/>
+      <c r="F640" s="6" t="n"/>
     </row>
     <row r="641">
       <c r="A641" t="n">
@@ -14206,13 +14213,13 @@
           <t>P.O.S. PRINTER</t>
         </is>
       </c>
-      <c r="D641" t="n">
+      <c r="D641" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E641" t="n">
         <v>1</v>
       </c>
-      <c r="F641" s="5" t="n">
+      <c r="F641" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T641" t="inlineStr">
@@ -14233,13 +14240,13 @@
           <t>POS SYSTEM</t>
         </is>
       </c>
-      <c r="D642" t="n">
+      <c r="D642" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E642" t="n">
         <v>1</v>
       </c>
-      <c r="F642" s="5" t="n">
+      <c r="F642" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T642" t="inlineStr">
@@ -14260,13 +14267,13 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D643" t="n">
+      <c r="D643" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E643" t="n">
         <v>1</v>
       </c>
-      <c r="F643" s="5" t="n">
+      <c r="F643" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J643" t="n">
@@ -14298,7 +14305,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F644" s="5" t="n"/>
+      <c r="F644" s="6" t="n"/>
     </row>
     <row r="645">
       <c r="A645" t="n">
@@ -14314,7 +14321,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F645" s="5" t="n"/>
+      <c r="F645" s="6" t="n"/>
     </row>
     <row r="646">
       <c r="A646" t="n">
@@ -14328,7 +14335,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F646" s="5" t="n"/>
+      <c r="F646" s="6" t="n"/>
       <c r="G646" t="n">
         <v>15</v>
       </c>
@@ -14359,7 +14366,7 @@
           <t>UTILITY SINK</t>
         </is>
       </c>
-      <c r="F647" s="5" t="n"/>
+      <c r="F647" s="6" t="n"/>
       <c r="G647" t="n">
         <v>15</v>
       </c>
@@ -14390,7 +14397,7 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F648" s="5" t="n"/>
+      <c r="F648" s="6" t="n"/>
       <c r="T648" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
@@ -14409,7 +14416,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F649" s="5" t="n"/>
+      <c r="F649" s="6" t="n"/>
       <c r="T649" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -14430,7 +14437,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F650" s="5" t="n"/>
+      <c r="F650" s="6" t="n"/>
     </row>
     <row r="651">
       <c r="A651" t="n">
@@ -14444,7 +14451,7 @@
           <t>BLENDER STATION</t>
         </is>
       </c>
-      <c r="F651" s="5" t="n"/>
+      <c r="F651" s="6" t="n"/>
       <c r="T651" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
@@ -14463,13 +14470,13 @@
           <t>BAR BLENDER</t>
         </is>
       </c>
-      <c r="D652" t="n">
+      <c r="D652" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E652" t="n">
         <v>1</v>
       </c>
-      <c r="F652" s="5" t="n">
+      <c r="F652" s="6" t="n">
         <v>3.5</v>
       </c>
       <c r="T652" t="inlineStr">
@@ -14490,13 +14497,13 @@
           <t>REFRIGERATED COCKTAIL STATION</t>
         </is>
       </c>
-      <c r="D653" t="n">
+      <c r="D653" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E653" t="n">
         <v>1</v>
       </c>
-      <c r="F653" s="5" t="n">
+      <c r="F653" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J653" t="n">
@@ -14528,7 +14535,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F654" s="5" t="n"/>
+      <c r="F654" s="6" t="n"/>
     </row>
     <row r="655">
       <c r="A655" t="n">
@@ -14544,7 +14551,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F655" s="5" t="n"/>
+      <c r="F655" s="6" t="n"/>
     </row>
     <row r="656">
       <c r="A656" t="n">
@@ -14558,7 +14565,7 @@
           <t>CO2 GLASS FROSTER</t>
         </is>
       </c>
-      <c r="F656" s="5" t="n"/>
+      <c r="F656" s="6" t="n"/>
       <c r="T656" t="inlineStr">
         <is>
           <t>MOUNTED TO ITEM #802</t>
@@ -14577,7 +14584,7 @@
           <t>CO2 TANK</t>
         </is>
       </c>
-      <c r="F657" s="5" t="n"/>
+      <c r="F657" s="6" t="n"/>
       <c r="T657" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
@@ -14596,13 +14603,13 @@
           <t>STAIR STEP REFRIGERATED CONDIMENT RAIL</t>
         </is>
       </c>
-      <c r="D658" t="n">
+      <c r="D658" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E658" t="n">
         <v>1</v>
       </c>
-      <c r="F658" s="5" t="n">
+      <c r="F658" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J658" t="n">
@@ -14632,7 +14639,7 @@
           <t>DOUBLE BOTTLE RAIL</t>
         </is>
       </c>
-      <c r="F659" s="5" t="n"/>
+      <c r="F659" s="6" t="n"/>
       <c r="T659" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
@@ -14653,7 +14660,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F660" s="5" t="n"/>
+      <c r="F660" s="6" t="n"/>
     </row>
     <row r="661">
       <c r="A661" t="n">
@@ -14667,13 +14674,13 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D661" t="n">
+      <c r="D661" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E661" t="n">
         <v>1</v>
       </c>
-      <c r="F661" s="5" t="n">
+      <c r="F661" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J661" t="n">
@@ -14703,13 +14710,13 @@
           <t>UNDERCOUNTER FREEZER WITH CARVING BOARD</t>
         </is>
       </c>
-      <c r="D662" t="n">
+      <c r="D662" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E662" t="n">
         <v>1</v>
       </c>
-      <c r="F662" s="5" t="n">
+      <c r="F662" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J662" t="n">
@@ -14739,13 +14746,13 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D663" t="n">
+      <c r="D663" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E663" t="n">
         <v>1</v>
       </c>
-      <c r="F663" s="5" t="n">
+      <c r="F663" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J663" t="n">
@@ -14777,7 +14784,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F664" s="5" t="n"/>
+      <c r="F664" s="6" t="n"/>
     </row>
     <row r="665">
       <c r="A665" t="n">
@@ -14793,7 +14800,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F665" s="5" t="n"/>
+      <c r="F665" s="6" t="n"/>
     </row>
     <row r="666">
       <c r="A666" t="n">
@@ -14807,13 +14814,13 @@
           <t>UNDERCOUNTER FREEZER</t>
         </is>
       </c>
-      <c r="D666" t="n">
+      <c r="D666" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E666" t="n">
         <v>1</v>
       </c>
-      <c r="F666" s="5" t="n">
+      <c r="F666" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J666" t="n">
@@ -14843,7 +14850,7 @@
           <t>FLIP TOP WITH DOOR</t>
         </is>
       </c>
-      <c r="F667" s="5" t="n"/>
+      <c r="F667" s="6" t="n"/>
       <c r="T667" t="inlineStr">
         <is>
           <t>MILLWORK / BY INTERIOR DESIGNER PART OF ITEM#801</t>
@@ -14864,7 +14871,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F668" s="5" t="n"/>
+      <c r="F668" s="6" t="n"/>
     </row>
     <row r="669">
       <c r="A669" t="n">
@@ -14880,7 +14887,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F669" s="5" t="n"/>
+      <c r="F669" s="6" t="n"/>
     </row>
     <row r="670">
       <c r="A670" t="n">
@@ -14896,7 +14903,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F670" s="5" t="n"/>
+      <c r="F670" s="6" t="n"/>
     </row>
     <row r="671">
       <c r="A671" t="n">
@@ -14910,7 +14917,7 @@
           <t>BACK BAR TOP WITH BOTTLE STEP</t>
         </is>
       </c>
-      <c r="F671" s="5" t="n"/>
+      <c r="F671" s="6" t="n"/>
       <c r="T671" t="inlineStr">
         <is>
           <t>MILLWORK / BY INTERIOR DESIGNER</t>
@@ -14929,13 +14936,13 @@
           <t>UNDERCOUNTER PASS-THRU REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D672" t="n">
+      <c r="D672" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E672" t="n">
         <v>1</v>
       </c>
-      <c r="F672" s="5" t="n">
+      <c r="F672" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J672" t="n">
@@ -14967,7 +14974,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F673" s="5" t="n"/>
+      <c r="F673" s="6" t="n"/>
     </row>
     <row r="674">
       <c r="A674" t="n">
@@ -14983,7 +14990,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F674" s="5" t="n"/>
+      <c r="F674" s="6" t="n"/>
     </row>
     <row r="675">
       <c r="A675" t="n">
@@ -14999,7 +15006,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F675" s="5" t="n"/>
+      <c r="F675" s="6" t="n"/>
     </row>
     <row r="676">
       <c r="A676" t="n">
@@ -15015,7 +15022,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F676" s="5" t="n"/>
+      <c r="F676" s="6" t="n"/>
     </row>
     <row r="677">
       <c r="A677" t="n">
@@ -15031,7 +15038,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F677" s="5" t="n"/>
+      <c r="F677" s="6" t="n"/>
     </row>
     <row r="678">
       <c r="A678" t="n">
@@ -15047,7 +15054,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F678" s="5" t="n"/>
+      <c r="F678" s="6" t="n"/>
     </row>
     <row r="679">
       <c r="A679" t="n">
@@ -15063,7 +15070,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F679" s="5" t="n"/>
+      <c r="F679" s="6" t="n"/>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
@@ -15081,7 +15088,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F680" s="5" t="n"/>
+      <c r="F680" s="6" t="n"/>
     </row>
     <row r="681">
       <c r="A681" s="3" t="inlineStr">
@@ -15121,7 +15128,7 @@
           <t>BAR TOP AND DIE WITH DRINK RAIL</t>
         </is>
       </c>
-      <c r="F682" s="5" t="n"/>
+      <c r="F682" s="6" t="n"/>
       <c r="T682" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR WITH GLASS TROUGH</t>
@@ -15140,7 +15147,7 @@
           <t>BAR WORK COUNTER</t>
         </is>
       </c>
-      <c r="F683" s="5" t="n"/>
+      <c r="F683" s="6" t="n"/>
       <c r="T683" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -15159,7 +15166,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F684" s="5" t="n"/>
+      <c r="F684" s="6" t="n"/>
       <c r="G684" t="n">
         <v>15</v>
       </c>
@@ -15190,13 +15197,13 @@
           <t>UNDERCOUNTER FREEZER</t>
         </is>
       </c>
-      <c r="D685" t="n">
+      <c r="D685" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E685" t="n">
         <v>1</v>
       </c>
-      <c r="F685" s="5" t="n">
+      <c r="F685" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J685" t="n">
@@ -15228,7 +15235,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F686" s="5" t="n"/>
+      <c r="F686" s="6" t="n"/>
     </row>
     <row r="687">
       <c r="A687" t="n">
@@ -15242,7 +15249,7 @@
           <t>UTILITY SINK</t>
         </is>
       </c>
-      <c r="F687" s="5" t="n"/>
+      <c r="F687" s="6" t="n"/>
       <c r="G687" t="n">
         <v>15</v>
       </c>
@@ -15273,7 +15280,7 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F688" s="5" t="n"/>
+      <c r="F688" s="6" t="n"/>
       <c r="T688" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #902</t>
@@ -15292,7 +15299,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F689" s="5" t="n"/>
+      <c r="F689" s="6" t="n"/>
       <c r="T689" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -15311,7 +15318,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F690" s="5" t="n"/>
+      <c r="F690" s="6" t="n"/>
       <c r="K690" t="n">
         <v>50</v>
       </c>
@@ -15330,7 +15337,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F691" s="5" t="n"/>
+      <c r="F691" s="6" t="n"/>
     </row>
     <row r="692">
       <c r="A692" t="n">
@@ -15344,13 +15351,13 @@
           <t>REFRIGERATED COCKTAIL STATION</t>
         </is>
       </c>
-      <c r="D692" t="n">
+      <c r="D692" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E692" t="n">
         <v>1</v>
       </c>
-      <c r="F692" s="5" t="n">
+      <c r="F692" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J692" t="n">
@@ -15380,13 +15387,13 @@
           <t>REFRIGERATED CONDIMENT RAIL</t>
         </is>
       </c>
-      <c r="D693" t="n">
+      <c r="D693" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E693" t="n">
         <v>1</v>
       </c>
-      <c r="F693" s="5" t="n">
+      <c r="F693" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J693" t="n">
@@ -15416,7 +15423,7 @@
           <t>DOUBLE BOTTLE RAIL</t>
         </is>
       </c>
-      <c r="F694" s="5" t="n"/>
+      <c r="F694" s="6" t="n"/>
       <c r="T694" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #902</t>
@@ -15435,13 +15442,13 @@
           <t>P.O.S. PRINTER</t>
         </is>
       </c>
-      <c r="D695" t="n">
+      <c r="D695" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E695" t="n">
         <v>1</v>
       </c>
-      <c r="F695" s="5" t="n">
+      <c r="F695" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T695" t="inlineStr">
@@ -15464,7 +15471,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F696" s="5" t="n"/>
+      <c r="F696" s="6" t="n"/>
     </row>
     <row r="697">
       <c r="A697" t="n">
@@ -15478,13 +15485,13 @@
           <t>POS SYSTEM</t>
         </is>
       </c>
-      <c r="D697" t="n">
+      <c r="D697" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E697" t="n">
         <v>1</v>
       </c>
-      <c r="F697" s="5" t="n">
+      <c r="F697" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T697" t="inlineStr">
@@ -15507,7 +15514,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F698" s="5" t="n"/>
+      <c r="F698" s="6" t="n"/>
     </row>
     <row r="699">
       <c r="A699" t="n">
@@ -15523,7 +15530,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F699" s="5" t="n"/>
+      <c r="F699" s="6" t="n"/>
     </row>
     <row r="700">
       <c r="A700" t="n">
@@ -15539,7 +15546,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F700" s="5" t="n"/>
+      <c r="F700" s="6" t="n"/>
     </row>
     <row r="701">
       <c r="A701" t="n">
@@ -15555,7 +15562,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F701" s="5" t="n"/>
+      <c r="F701" s="6" t="n"/>
     </row>
     <row r="702">
       <c r="A702" t="n">
@@ -15569,7 +15576,7 @@
           <t>BACK BAR WORK COUNTER</t>
         </is>
       </c>
-      <c r="F702" s="5" t="n"/>
+      <c r="F702" s="6" t="n"/>
     </row>
     <row r="703">
       <c r="A703" t="n">
@@ -15583,7 +15590,7 @@
           <t>BACK BAR TOP</t>
         </is>
       </c>
-      <c r="F703" s="5" t="n"/>
+      <c r="F703" s="6" t="n"/>
       <c r="T703" t="inlineStr">
         <is>
           <t>BY INTERIOR DESIGNER</t>
@@ -15602,13 +15609,13 @@
           <t>OPEN STORAGE CABINET</t>
         </is>
       </c>
-      <c r="D704" t="n">
+      <c r="D704" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E704" t="n">
         <v>1</v>
       </c>
-      <c r="F704" s="5" t="n">
+      <c r="F704" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T704" t="inlineStr">
@@ -15629,13 +15636,13 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D705" t="n">
+      <c r="D705" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E705" t="n">
         <v>1</v>
       </c>
-      <c r="F705" s="5" t="n">
+      <c r="F705" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J705" t="n">
@@ -15667,7 +15674,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F706" s="5" t="n"/>
+      <c r="F706" s="6" t="n"/>
     </row>
     <row r="707">
       <c r="A707" t="n">
@@ -15681,13 +15688,13 @@
           <t>STORAGE CABINET</t>
         </is>
       </c>
-      <c r="D707" t="n">
+      <c r="D707" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E707" t="n">
         <v>1</v>
       </c>
-      <c r="F707" s="5" t="n">
+      <c r="F707" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T707" t="inlineStr">
@@ -15708,7 +15715,7 @@
           <t>BOTTLE DISPLAY</t>
         </is>
       </c>
-      <c r="F708" s="5" t="n"/>
+      <c r="F708" s="6" t="n"/>
       <c r="T708" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
@@ -15729,7 +15736,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F709" s="5" t="n"/>
+      <c r="F709" s="6" t="n"/>
     </row>
     <row r="710">
       <c r="A710" t="n">
@@ -15745,7 +15752,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F710" s="5" t="n"/>
+      <c r="F710" s="6" t="n"/>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
@@ -15763,7 +15770,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F711" s="5" t="n"/>
+      <c r="F711" s="6" t="n"/>
     </row>
     <row r="712">
       <c r="A712" s="3" t="inlineStr">
@@ -15803,7 +15810,7 @@
           <t>BAR TOP AND DIE WITH DRINK RAIL</t>
         </is>
       </c>
-      <c r="F713" s="5" t="n"/>
+      <c r="F713" s="6" t="n"/>
       <c r="T713" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR WITH GLASS TROUGH</t>
@@ -15822,7 +15829,7 @@
           <t>BAR WORK COUNTER</t>
         </is>
       </c>
-      <c r="F714" s="5" t="n"/>
+      <c r="F714" s="6" t="n"/>
       <c r="T714" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -15841,7 +15848,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F715" s="5" t="n"/>
+      <c r="F715" s="6" t="n"/>
       <c r="G715" t="n">
         <v>15</v>
       </c>
@@ -15872,13 +15879,13 @@
           <t>UNDERCOUNTER FREEZER</t>
         </is>
       </c>
-      <c r="D716" t="n">
+      <c r="D716" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E716" t="n">
         <v>1</v>
       </c>
-      <c r="F716" s="5" t="n">
+      <c r="F716" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J716" t="n">
@@ -15910,7 +15917,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F717" s="5" t="n"/>
+      <c r="F717" s="6" t="n"/>
     </row>
     <row r="718">
       <c r="A718" t="n">
@@ -15924,7 +15931,7 @@
           <t>UTILITY SINK</t>
         </is>
       </c>
-      <c r="F718" s="5" t="n"/>
+      <c r="F718" s="6" t="n"/>
       <c r="G718" t="n">
         <v>15</v>
       </c>
@@ -15955,7 +15962,7 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F719" s="5" t="n"/>
+      <c r="F719" s="6" t="n"/>
       <c r="T719" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #952</t>
@@ -15974,7 +15981,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F720" s="5" t="n"/>
+      <c r="F720" s="6" t="n"/>
       <c r="T720" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -15993,7 +16000,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F721" s="5" t="n"/>
+      <c r="F721" s="6" t="n"/>
       <c r="K721" t="n">
         <v>50</v>
       </c>
@@ -16017,7 +16024,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F722" s="5" t="n"/>
+      <c r="F722" s="6" t="n"/>
     </row>
     <row r="723">
       <c r="A723" t="n">
@@ -16031,13 +16038,13 @@
           <t>REFRIGERATED COCKTAIL STATION</t>
         </is>
       </c>
-      <c r="D723" t="n">
+      <c r="D723" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E723" t="n">
         <v>1</v>
       </c>
-      <c r="F723" s="5" t="n">
+      <c r="F723" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J723" t="n">
@@ -16067,13 +16074,13 @@
           <t>REFRIGERATED CONDIMENT RAIL</t>
         </is>
       </c>
-      <c r="D724" t="n">
+      <c r="D724" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E724" t="n">
         <v>1</v>
       </c>
-      <c r="F724" s="5" t="n">
+      <c r="F724" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J724" t="n">
@@ -16103,7 +16110,7 @@
           <t>DOUBLE BOTTLE RAIL</t>
         </is>
       </c>
-      <c r="F725" s="5" t="n"/>
+      <c r="F725" s="6" t="n"/>
       <c r="T725" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #952</t>
@@ -16122,13 +16129,13 @@
           <t>P.O.S. PRINTER</t>
         </is>
       </c>
-      <c r="D726" t="n">
+      <c r="D726" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E726" t="n">
         <v>1</v>
       </c>
-      <c r="F726" s="5" t="n">
+      <c r="F726" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T726" t="inlineStr">
@@ -16151,7 +16158,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F727" s="5" t="n"/>
+      <c r="F727" s="6" t="n"/>
     </row>
     <row r="728">
       <c r="A728" t="n">
@@ -16165,13 +16172,13 @@
           <t>POS SYSTEM</t>
         </is>
       </c>
-      <c r="D728" t="n">
+      <c r="D728" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E728" t="n">
         <v>1</v>
       </c>
-      <c r="F728" s="5" t="n">
+      <c r="F728" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T728" t="inlineStr">
@@ -16194,7 +16201,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F729" s="5" t="n"/>
+      <c r="F729" s="6" t="n"/>
     </row>
     <row r="730">
       <c r="A730" t="n">
@@ -16210,7 +16217,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F730" s="5" t="n"/>
+      <c r="F730" s="6" t="n"/>
     </row>
     <row r="731">
       <c r="A731" t="n">
@@ -16226,7 +16233,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F731" s="5" t="n"/>
+      <c r="F731" s="6" t="n"/>
     </row>
     <row r="732">
       <c r="A732" t="n">
@@ -16242,7 +16249,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F732" s="5" t="n"/>
+      <c r="F732" s="6" t="n"/>
     </row>
     <row r="733">
       <c r="A733" t="n">
@@ -16256,7 +16263,7 @@
           <t>BACK BAR WORK COUNTER</t>
         </is>
       </c>
-      <c r="F733" s="5" t="n"/>
+      <c r="F733" s="6" t="n"/>
     </row>
     <row r="734">
       <c r="A734" t="n">
@@ -16270,7 +16277,7 @@
           <t>BACK BAR TOP</t>
         </is>
       </c>
-      <c r="F734" s="5" t="n"/>
+      <c r="F734" s="6" t="n"/>
     </row>
     <row r="735">
       <c r="A735" t="n">
@@ -16284,13 +16291,13 @@
           <t>OPEN STORAGE CABINET</t>
         </is>
       </c>
-      <c r="D735" t="n">
+      <c r="D735" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E735" t="n">
         <v>1</v>
       </c>
-      <c r="F735" s="5" t="n">
+      <c r="F735" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T735" t="inlineStr">
@@ -16311,13 +16318,13 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D736" t="n">
+      <c r="D736" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E736" t="n">
         <v>1</v>
       </c>
-      <c r="F736" s="5" t="n">
+      <c r="F736" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J736" t="n">
@@ -16349,7 +16356,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F737" s="5" t="n"/>
+      <c r="F737" s="6" t="n"/>
     </row>
     <row r="738">
       <c r="A738" t="n">
@@ -16363,13 +16370,13 @@
           <t>STORAGE CABINET</t>
         </is>
       </c>
-      <c r="D738" t="n">
+      <c r="D738" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E738" t="n">
         <v>1</v>
       </c>
-      <c r="F738" s="5" t="n">
+      <c r="F738" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T738" t="inlineStr">
@@ -16390,7 +16397,7 @@
           <t>BOTTLE DISPLAY</t>
         </is>
       </c>
-      <c r="F739" s="5" t="n"/>
+      <c r="F739" s="6" t="n"/>
       <c r="T739" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
@@ -16411,7 +16418,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F740" s="5" t="n"/>
+      <c r="F740" s="6" t="n"/>
     </row>
     <row r="741">
       <c r="A741" t="n">
@@ -16427,7 +16434,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F741" s="5" t="n"/>
+      <c r="F741" s="6" t="n"/>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
@@ -16445,7 +16452,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F742" s="5" t="n"/>
+      <c r="F742" s="6" t="n"/>
     </row>
     <row r="743">
       <c r="A743" s="3" t="inlineStr">
@@ -16477,16 +16484,16 @@
       <c r="A744" t="inlineStr"/>
     </row>
     <row r="745">
-      <c r="A745" s="6" t="inlineStr">
+      <c r="A745" s="7" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="I745" s="7">
+      <c r="I745" s="8">
         <f>SUM(I7:I744)</f>
         <v/>
       </c>
-      <c r="Q745" s="7">
+      <c r="Q745" s="8">
         <f>SUM(Q7:Q744)</f>
         <v/>
       </c>

--- a/Bulk Loads/6521/6521 Preliminary Utility Load Schedule_2022_formatted.xlsx
+++ b/Bulk Loads/6521/6521 Preliminary Utility Load Schedule_2022_formatted.xlsx
@@ -513,7 +513,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 05, 2024</t>
+          <t>August 06, 2024</t>
         </is>
       </c>
     </row>
